--- a/douments/Project Tracker - Gantt Chart.xlsx
+++ b/douments/Project Tracker - Gantt Chart.xlsx
@@ -4,6 +4,7 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Sheet2" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="84">
   <si>
     <t>Task</t>
   </si>
@@ -81,12 +82,195 @@
   <si>
     <t>Deployment (Actual)</t>
   </si>
+  <si>
+    <t>Milestone</t>
+  </si>
+  <si>
+    <t>Expected/Actual</t>
+  </si>
+  <si>
+    <t>Planning</t>
+  </si>
+  <si>
+    <t>Project Setup &amp; Environment</t>
+  </si>
+  <si>
+    <t>Technical Architecture Design</t>
+  </si>
+  <si>
+    <t>Database Schema Design</t>
+  </si>
+  <si>
+    <t>API Endpoints Planning</t>
+  </si>
+  <si>
+    <t>Wireframing</t>
+  </si>
+  <si>
+    <t>User Flow Diagram</t>
+  </si>
+  <si>
+    <t>Low-fidelity Wireframes</t>
+  </si>
+  <si>
+    <t>Database &amp; Infrastructure</t>
+  </si>
+  <si>
+    <t>PostgreSQL Database Setup</t>
+  </si>
+  <si>
+    <t>Prisma ORM Configuration</t>
+  </si>
+  <si>
+    <t>AWS S3 Bucket Configuration</t>
+  </si>
+  <si>
+    <t>Environment Configuration</t>
+  </si>
+  <si>
+    <t>Authentication System</t>
+  </si>
+  <si>
+    <t>Firebase Admin SDK Setup</t>
+  </si>
+  <si>
+    <t>Authentication Middleware</t>
+  </si>
+  <si>
+    <t>Basic API Structure</t>
+  </si>
+  <si>
+    <t>Express Server Setup</t>
+  </si>
+  <si>
+    <t>Enhancements</t>
+  </si>
+  <si>
+    <t>User Management API</t>
+  </si>
+  <si>
+    <t>Backend API Development</t>
+  </si>
+  <si>
+    <t>Project CRUD Operations APIs</t>
+  </si>
+  <si>
+    <t>User Management APIs</t>
+  </si>
+  <si>
+    <t>Member Invitation APIs</t>
+  </si>
+  <si>
+    <t>Meeting Scheduling APIs</t>
+  </si>
+  <si>
+    <t>Project Details Export APIs</t>
+  </si>
+  <si>
+    <t>Task Completion Review API</t>
+  </si>
+  <si>
+    <t>Core React Setup</t>
+  </si>
+  <si>
+    <t>React App Initialization</t>
+  </si>
+  <si>
+    <t>Routing &amp; Navigation Setup</t>
+  </si>
+  <si>
+    <t>Authentication Components</t>
+  </si>
+  <si>
+    <t>Firebase Client Setup</t>
+  </si>
+  <si>
+    <t>Login/Register Components</t>
+  </si>
+  <si>
+    <t>Core UI Components</t>
+  </si>
+  <si>
+    <t>Dashboard Layout</t>
+  </si>
+  <si>
+    <t>Project Management Interface</t>
+  </si>
+  <si>
+    <t>Member Invitation Interface</t>
+  </si>
+  <si>
+    <t>Timeline Interface</t>
+  </si>
+  <si>
+    <t>Task Completion - Proof Submission Interface</t>
+  </si>
+  <si>
+    <t>Task Completion - Verification Interface</t>
+  </si>
+  <si>
+    <t>Frontend-Backend Integration</t>
+  </si>
+  <si>
+    <t>Authentication Integration</t>
+  </si>
+  <si>
+    <t>Project Management Integration</t>
+  </si>
+  <si>
+    <t>Task Management Integration</t>
+  </si>
+  <si>
+    <t>User Management Integration</t>
+  </si>
+  <si>
+    <t>Member Invitation Integration</t>
+  </si>
+  <si>
+    <t>Meeting Scheduling Integration</t>
+  </si>
+  <si>
+    <t>Project Details Export Integration</t>
+  </si>
+  <si>
+    <t>Task Completion Review Integration</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Unit Testing - API Endpoints</t>
+  </si>
+  <si>
+    <t>Authentication Testing</t>
+  </si>
+  <si>
+    <t>Unit Testing - UI Components</t>
+  </si>
+  <si>
+    <t>Integration Testing - UI &amp; Database</t>
+  </si>
+  <si>
+    <t>End-to-End Testing</t>
+  </si>
+  <si>
+    <t>Cross-browser Testing</t>
+  </si>
+  <si>
+    <t>Deployment Setup</t>
+  </si>
+  <si>
+    <t>Production Environment Setup</t>
+  </si>
+  <si>
+    <t>CI/CD Pipeline Configuration</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="10">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -115,8 +299,35 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font/>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -141,8 +352,20 @@
         <bgColor theme="8"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD0E0E3"/>
+        <bgColor rgb="FFD0E0E3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="15">
     <border/>
     <border>
       <left style="thin">
@@ -196,11 +419,74 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="57">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -268,6 +554,88 @@
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="9" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="11" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="10" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="13" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="13" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="13" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="13" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="13" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="13" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="13" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="13" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="13" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="13" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="14" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="14" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="8" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -277,6 +645,10 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -3669,4 +4041,5563 @@
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="17.5"/>
+    <col customWidth="1" min="2" max="2" width="36.63"/>
+    <col customWidth="1" min="3" max="3" width="15.75"/>
+    <col customWidth="1" min="4" max="44" width="3.25"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="26"/>
+      <c r="AD1" s="26"/>
+      <c r="AE1" s="27"/>
+      <c r="AF1" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG1" s="26"/>
+      <c r="AH1" s="26"/>
+      <c r="AI1" s="26"/>
+      <c r="AJ1" s="26"/>
+      <c r="AK1" s="26"/>
+      <c r="AL1" s="27"/>
+      <c r="AM1" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN1" s="26"/>
+      <c r="AO1" s="26"/>
+      <c r="AP1" s="26"/>
+      <c r="AQ1" s="26"/>
+      <c r="AR1" s="27"/>
+      <c r="AS1" s="30"/>
+      <c r="AT1" s="30"/>
+      <c r="AU1" s="30"/>
+      <c r="AV1" s="30"/>
+      <c r="AW1" s="30"/>
+      <c r="AX1" s="30"/>
+      <c r="AY1" s="30"/>
+      <c r="AZ1" s="30"/>
+      <c r="BA1" s="30"/>
+      <c r="BB1" s="30"/>
+      <c r="BC1" s="30"/>
+      <c r="BD1" s="30"/>
+      <c r="BE1" s="30"/>
+      <c r="BF1" s="30"/>
+      <c r="BG1" s="30"/>
+      <c r="BH1" s="30"/>
+      <c r="BI1" s="30"/>
+      <c r="BJ1" s="30"/>
+      <c r="BK1" s="30"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="25">
+        <v>1.0</v>
+      </c>
+      <c r="E2" s="25">
+        <v>2.0</v>
+      </c>
+      <c r="F2" s="25">
+        <v>3.0</v>
+      </c>
+      <c r="G2" s="25">
+        <v>4.0</v>
+      </c>
+      <c r="H2" s="25">
+        <v>5.0</v>
+      </c>
+      <c r="I2" s="25">
+        <v>6.0</v>
+      </c>
+      <c r="J2" s="31">
+        <v>7.0</v>
+      </c>
+      <c r="K2" s="25">
+        <v>8.0</v>
+      </c>
+      <c r="L2" s="25">
+        <v>9.0</v>
+      </c>
+      <c r="M2" s="25">
+        <v>10.0</v>
+      </c>
+      <c r="N2" s="25">
+        <v>11.0</v>
+      </c>
+      <c r="O2" s="25">
+        <v>12.0</v>
+      </c>
+      <c r="P2" s="25">
+        <v>13.0</v>
+      </c>
+      <c r="Q2" s="31">
+        <v>14.0</v>
+      </c>
+      <c r="R2" s="25">
+        <v>15.0</v>
+      </c>
+      <c r="S2" s="25">
+        <v>16.0</v>
+      </c>
+      <c r="T2" s="25">
+        <v>17.0</v>
+      </c>
+      <c r="U2" s="25">
+        <v>18.0</v>
+      </c>
+      <c r="V2" s="25">
+        <v>19.0</v>
+      </c>
+      <c r="W2" s="25">
+        <v>20.0</v>
+      </c>
+      <c r="X2" s="31">
+        <v>21.0</v>
+      </c>
+      <c r="Y2" s="32">
+        <v>22.0</v>
+      </c>
+      <c r="Z2" s="25">
+        <v>23.0</v>
+      </c>
+      <c r="AA2" s="25">
+        <v>24.0</v>
+      </c>
+      <c r="AB2" s="25">
+        <v>25.0</v>
+      </c>
+      <c r="AC2" s="25">
+        <v>26.0</v>
+      </c>
+      <c r="AD2" s="25">
+        <v>27.0</v>
+      </c>
+      <c r="AE2" s="31">
+        <v>28.0</v>
+      </c>
+      <c r="AF2" s="25">
+        <v>29.0</v>
+      </c>
+      <c r="AG2" s="25">
+        <v>30.0</v>
+      </c>
+      <c r="AH2" s="25">
+        <v>31.0</v>
+      </c>
+      <c r="AI2" s="25">
+        <v>32.0</v>
+      </c>
+      <c r="AJ2" s="25">
+        <v>33.0</v>
+      </c>
+      <c r="AK2" s="25">
+        <v>34.0</v>
+      </c>
+      <c r="AL2" s="31">
+        <v>35.0</v>
+      </c>
+      <c r="AM2" s="25">
+        <v>36.0</v>
+      </c>
+      <c r="AN2" s="25">
+        <v>37.0</v>
+      </c>
+      <c r="AO2" s="25">
+        <v>38.0</v>
+      </c>
+      <c r="AP2" s="25">
+        <v>39.0</v>
+      </c>
+      <c r="AQ2" s="25">
+        <v>40.0</v>
+      </c>
+      <c r="AR2" s="31">
+        <v>41.0</v>
+      </c>
+      <c r="AS2" s="33"/>
+      <c r="AT2" s="33"/>
+      <c r="AU2" s="33"/>
+      <c r="AV2" s="33"/>
+      <c r="AW2" s="33"/>
+      <c r="AX2" s="33"/>
+      <c r="AY2" s="33"/>
+      <c r="AZ2" s="33"/>
+      <c r="BA2" s="33"/>
+      <c r="BB2" s="33"/>
+      <c r="BC2" s="33"/>
+      <c r="BD2" s="33"/>
+      <c r="BE2" s="33"/>
+      <c r="BF2" s="33"/>
+      <c r="BG2" s="33"/>
+      <c r="BH2" s="33"/>
+      <c r="BI2" s="33"/>
+      <c r="BJ2" s="33"/>
+      <c r="BK2" s="33"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="X3" s="37"/>
+      <c r="Y3" s="38"/>
+      <c r="AE3" s="37"/>
+      <c r="AL3" s="37"/>
+      <c r="AR3" s="37"/>
+      <c r="AS3" s="9"/>
+      <c r="AT3" s="9"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="39"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="37"/>
+      <c r="Q4" s="37"/>
+      <c r="X4" s="37"/>
+      <c r="Y4" s="38"/>
+      <c r="AE4" s="37"/>
+      <c r="AL4" s="37"/>
+      <c r="AR4" s="37"/>
+      <c r="AS4" s="9"/>
+      <c r="AT4" s="9"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="39"/>
+      <c r="B5" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="37"/>
+      <c r="Q5" s="37"/>
+      <c r="X5" s="37"/>
+      <c r="Y5" s="38"/>
+      <c r="AE5" s="37"/>
+      <c r="AL5" s="37"/>
+      <c r="AR5" s="37"/>
+      <c r="AS5" s="9"/>
+      <c r="AT5" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="39"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="37"/>
+      <c r="Q6" s="37"/>
+      <c r="X6" s="37"/>
+      <c r="Y6" s="38"/>
+      <c r="AE6" s="37"/>
+      <c r="AL6" s="37"/>
+      <c r="AR6" s="37"/>
+      <c r="AS6" s="9"/>
+      <c r="AT6" s="9"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="39"/>
+      <c r="B7" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="37"/>
+      <c r="Q7" s="37"/>
+      <c r="X7" s="37"/>
+      <c r="Y7" s="38"/>
+      <c r="AE7" s="37"/>
+      <c r="AL7" s="37"/>
+      <c r="AR7" s="37"/>
+      <c r="AS7" s="7"/>
+      <c r="AT7" s="11"/>
+      <c r="AU7" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="39"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="37"/>
+      <c r="Q8" s="37"/>
+      <c r="X8" s="37"/>
+      <c r="Y8" s="38"/>
+      <c r="AE8" s="37"/>
+      <c r="AL8" s="37"/>
+      <c r="AR8" s="37"/>
+      <c r="AS8" s="7"/>
+      <c r="AT8" s="13"/>
+      <c r="AU8" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="39"/>
+      <c r="B9" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="37"/>
+      <c r="Q9" s="37"/>
+      <c r="X9" s="37"/>
+      <c r="Y9" s="38"/>
+      <c r="AE9" s="37"/>
+      <c r="AL9" s="37"/>
+      <c r="AR9" s="37"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="39"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="37"/>
+      <c r="Q10" s="37"/>
+      <c r="X10" s="37"/>
+      <c r="Y10" s="38"/>
+      <c r="AE10" s="37"/>
+      <c r="AL10" s="37"/>
+      <c r="AR10" s="37"/>
+      <c r="AS10" s="7"/>
+      <c r="AT10" s="7"/>
+      <c r="AU10" s="12"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="43"/>
+      <c r="Q11" s="37"/>
+      <c r="X11" s="37"/>
+      <c r="Y11" s="38"/>
+      <c r="AE11" s="37"/>
+      <c r="AL11" s="37"/>
+      <c r="AR11" s="37"/>
+      <c r="AS11" s="9"/>
+      <c r="AT11" s="9"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="39"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="44"/>
+      <c r="Q12" s="37"/>
+      <c r="X12" s="37"/>
+      <c r="Y12" s="38"/>
+      <c r="AE12" s="37"/>
+      <c r="AL12" s="37"/>
+      <c r="AR12" s="37"/>
+      <c r="AS12" s="9"/>
+      <c r="AT12" s="9"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="39"/>
+      <c r="B13" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="43"/>
+      <c r="Q13" s="37"/>
+      <c r="X13" s="37"/>
+      <c r="Y13" s="38"/>
+      <c r="AE13" s="37"/>
+      <c r="AL13" s="37"/>
+      <c r="AR13" s="37"/>
+      <c r="AS13" s="9"/>
+      <c r="AT13" s="9"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="39"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="44"/>
+      <c r="Q14" s="37"/>
+      <c r="X14" s="37"/>
+      <c r="Y14" s="38"/>
+      <c r="AE14" s="37"/>
+      <c r="AL14" s="37"/>
+      <c r="AR14" s="37"/>
+      <c r="AS14" s="9"/>
+      <c r="AT14" s="9"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="Q15" s="37"/>
+      <c r="X15" s="37"/>
+      <c r="Y15" s="38"/>
+      <c r="AE15" s="37"/>
+      <c r="AL15" s="37"/>
+      <c r="AR15" s="37"/>
+      <c r="AS15" s="9"/>
+      <c r="AT15" s="9"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="39"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="40"/>
+      <c r="Q16" s="37"/>
+      <c r="X16" s="37"/>
+      <c r="Y16" s="38"/>
+      <c r="AE16" s="37"/>
+      <c r="AL16" s="37"/>
+      <c r="AR16" s="37"/>
+      <c r="AS16" s="9"/>
+      <c r="AT16" s="9"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="39"/>
+      <c r="B17" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="Q17" s="37"/>
+      <c r="X17" s="37"/>
+      <c r="Y17" s="38"/>
+      <c r="AE17" s="37"/>
+      <c r="AL17" s="37"/>
+      <c r="AR17" s="37"/>
+      <c r="AS17" s="9"/>
+      <c r="AT17" s="9"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="39"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="40"/>
+      <c r="Q18" s="37"/>
+      <c r="X18" s="37"/>
+      <c r="Y18" s="38"/>
+      <c r="AE18" s="37"/>
+      <c r="AL18" s="37"/>
+      <c r="AR18" s="37"/>
+      <c r="AS18" s="9"/>
+      <c r="AT18" s="9"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="39"/>
+      <c r="B19" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="Q19" s="37"/>
+      <c r="X19" s="37"/>
+      <c r="Y19" s="38"/>
+      <c r="AE19" s="37"/>
+      <c r="AL19" s="37"/>
+      <c r="AR19" s="37"/>
+      <c r="AS19" s="9"/>
+      <c r="AT19" s="9"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="39"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="40"/>
+      <c r="O20" s="40"/>
+      <c r="Q20" s="37"/>
+      <c r="X20" s="37"/>
+      <c r="Y20" s="38"/>
+      <c r="AE20" s="37"/>
+      <c r="AL20" s="37"/>
+      <c r="AR20" s="37"/>
+      <c r="AS20" s="9"/>
+      <c r="AT20" s="9"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="39"/>
+      <c r="B21" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="Q21" s="37"/>
+      <c r="X21" s="37"/>
+      <c r="Y21" s="38"/>
+      <c r="AE21" s="37"/>
+      <c r="AL21" s="37"/>
+      <c r="AR21" s="37"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="39"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="40"/>
+      <c r="Q22" s="37"/>
+      <c r="X22" s="37"/>
+      <c r="Y22" s="38"/>
+      <c r="AE22" s="37"/>
+      <c r="AL22" s="37"/>
+      <c r="AR22" s="37"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="37"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="X23" s="37"/>
+      <c r="Y23" s="38"/>
+      <c r="AE23" s="37"/>
+      <c r="AL23" s="37"/>
+      <c r="AR23" s="37"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="39"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="37"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="40"/>
+      <c r="Q24" s="40"/>
+      <c r="X24" s="37"/>
+      <c r="Y24" s="38"/>
+      <c r="AE24" s="37"/>
+      <c r="AL24" s="37"/>
+      <c r="AR24" s="37"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="39"/>
+      <c r="B25" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="37"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="X25" s="37"/>
+      <c r="Y25" s="38"/>
+      <c r="AE25" s="37"/>
+      <c r="AL25" s="37"/>
+      <c r="AR25" s="37"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="39"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="37"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="40"/>
+      <c r="Q26" s="40"/>
+      <c r="X26" s="37"/>
+      <c r="Y26" s="38"/>
+      <c r="AE26" s="37"/>
+      <c r="AL26" s="37"/>
+      <c r="AR26" s="37"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="37"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6"/>
+      <c r="T27" s="6"/>
+      <c r="X27" s="37"/>
+      <c r="Y27" s="38"/>
+      <c r="AE27" s="37"/>
+      <c r="AL27" s="37"/>
+      <c r="AR27" s="37"/>
+      <c r="AS27" s="12"/>
+      <c r="AT27" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="39"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="37"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="40"/>
+      <c r="S28" s="40"/>
+      <c r="T28" s="40"/>
+      <c r="X28" s="37"/>
+      <c r="Y28" s="38"/>
+      <c r="AE28" s="37"/>
+      <c r="AL28" s="37"/>
+      <c r="AR28" s="37"/>
+      <c r="AS28" s="12"/>
+      <c r="AT28" s="12"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="39"/>
+      <c r="B29" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="37"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6"/>
+      <c r="T29" s="6"/>
+      <c r="X29" s="37"/>
+      <c r="Y29" s="38"/>
+      <c r="AE29" s="37"/>
+      <c r="AL29" s="37"/>
+      <c r="AR29" s="37"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="39"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="37"/>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="40"/>
+      <c r="S30" s="40"/>
+      <c r="T30" s="40"/>
+      <c r="X30" s="37"/>
+      <c r="Y30" s="38"/>
+      <c r="AE30" s="37"/>
+      <c r="AL30" s="37"/>
+      <c r="AR30" s="37"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="9"/>
+      <c r="J31" s="37"/>
+      <c r="Q31" s="37"/>
+      <c r="T31" s="9"/>
+      <c r="U31" s="6"/>
+      <c r="V31" s="6"/>
+      <c r="W31" s="6"/>
+      <c r="X31" s="43"/>
+      <c r="AE31" s="37"/>
+      <c r="AL31" s="37"/>
+      <c r="AR31" s="37"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="39"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="9"/>
+      <c r="J32" s="37"/>
+      <c r="Q32" s="37"/>
+      <c r="T32" s="9"/>
+      <c r="U32" s="40"/>
+      <c r="V32" s="40"/>
+      <c r="W32" s="40"/>
+      <c r="X32" s="44"/>
+      <c r="AE32" s="37"/>
+      <c r="AL32" s="37"/>
+      <c r="AR32" s="37"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="39"/>
+      <c r="B33" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="9"/>
+      <c r="J33" s="37"/>
+      <c r="Q33" s="37"/>
+      <c r="T33" s="9"/>
+      <c r="U33" s="6"/>
+      <c r="V33" s="6"/>
+      <c r="W33" s="6"/>
+      <c r="X33" s="43"/>
+      <c r="AE33" s="37"/>
+      <c r="AL33" s="37"/>
+      <c r="AR33" s="37"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="39"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="9"/>
+      <c r="J34" s="37"/>
+      <c r="Q34" s="37"/>
+      <c r="T34" s="9"/>
+      <c r="U34" s="40"/>
+      <c r="V34" s="40"/>
+      <c r="W34" s="40"/>
+      <c r="X34" s="44"/>
+      <c r="AE34" s="37"/>
+      <c r="AL34" s="37"/>
+      <c r="AR34" s="37"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="39"/>
+      <c r="B35" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="9"/>
+      <c r="J35" s="37"/>
+      <c r="Q35" s="37"/>
+      <c r="T35" s="9"/>
+      <c r="U35" s="6"/>
+      <c r="V35" s="6"/>
+      <c r="W35" s="6"/>
+      <c r="X35" s="43"/>
+      <c r="AE35" s="37"/>
+      <c r="AL35" s="37"/>
+      <c r="AR35" s="37"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="39"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="9"/>
+      <c r="J36" s="37"/>
+      <c r="Q36" s="37"/>
+      <c r="T36" s="9"/>
+      <c r="U36" s="40"/>
+      <c r="V36" s="40"/>
+      <c r="W36" s="40"/>
+      <c r="X36" s="44"/>
+      <c r="AE36" s="37"/>
+      <c r="AL36" s="37"/>
+      <c r="AR36" s="37"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="39"/>
+      <c r="B37" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="9"/>
+      <c r="J37" s="37"/>
+      <c r="Q37" s="37"/>
+      <c r="T37" s="9"/>
+      <c r="U37" s="6"/>
+      <c r="V37" s="6"/>
+      <c r="W37" s="6"/>
+      <c r="X37" s="43"/>
+      <c r="AE37" s="37"/>
+      <c r="AL37" s="37"/>
+      <c r="AR37" s="37"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="39"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="9"/>
+      <c r="J38" s="37"/>
+      <c r="Q38" s="37"/>
+      <c r="T38" s="9"/>
+      <c r="U38" s="40"/>
+      <c r="V38" s="40"/>
+      <c r="W38" s="40"/>
+      <c r="X38" s="44"/>
+      <c r="AE38" s="37"/>
+      <c r="AL38" s="37"/>
+      <c r="AR38" s="37"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="39"/>
+      <c r="B39" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="9"/>
+      <c r="J39" s="37"/>
+      <c r="Q39" s="37"/>
+      <c r="T39" s="9"/>
+      <c r="U39" s="6"/>
+      <c r="V39" s="6"/>
+      <c r="W39" s="6"/>
+      <c r="X39" s="43"/>
+      <c r="AE39" s="37"/>
+      <c r="AL39" s="37"/>
+      <c r="AR39" s="37"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="39"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="9"/>
+      <c r="J40" s="37"/>
+      <c r="Q40" s="37"/>
+      <c r="T40" s="9"/>
+      <c r="U40" s="40"/>
+      <c r="V40" s="40"/>
+      <c r="W40" s="40"/>
+      <c r="X40" s="44"/>
+      <c r="AE40" s="37"/>
+      <c r="AL40" s="37"/>
+      <c r="AR40" s="37"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="39"/>
+      <c r="B41" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="9"/>
+      <c r="J41" s="37"/>
+      <c r="Q41" s="37"/>
+      <c r="T41" s="9"/>
+      <c r="U41" s="6"/>
+      <c r="V41" s="6"/>
+      <c r="W41" s="6"/>
+      <c r="X41" s="43"/>
+      <c r="AE41" s="37"/>
+      <c r="AL41" s="37"/>
+      <c r="AR41" s="37"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="39"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" s="9"/>
+      <c r="J42" s="37"/>
+      <c r="Q42" s="37"/>
+      <c r="T42" s="9"/>
+      <c r="U42" s="40"/>
+      <c r="V42" s="40"/>
+      <c r="W42" s="40"/>
+      <c r="X42" s="44"/>
+      <c r="AE42" s="37"/>
+      <c r="AL42" s="37"/>
+      <c r="AR42" s="37"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="B43" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="9"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="37"/>
+      <c r="Q43" s="37"/>
+      <c r="T43" s="9"/>
+      <c r="U43" s="9"/>
+      <c r="V43" s="9"/>
+      <c r="W43" s="9"/>
+      <c r="X43" s="15"/>
+      <c r="Y43" s="6"/>
+      <c r="Z43" s="6"/>
+      <c r="AA43" s="6"/>
+      <c r="AE43" s="37"/>
+      <c r="AL43" s="37"/>
+      <c r="AR43" s="37"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="39"/>
+      <c r="B44" s="39"/>
+      <c r="C44" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="9"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="37"/>
+      <c r="Q44" s="37"/>
+      <c r="T44" s="9"/>
+      <c r="U44" s="9"/>
+      <c r="V44" s="9"/>
+      <c r="W44" s="9"/>
+      <c r="X44" s="15"/>
+      <c r="Y44" s="40"/>
+      <c r="Z44" s="40"/>
+      <c r="AA44" s="40"/>
+      <c r="AE44" s="37"/>
+      <c r="AL44" s="37"/>
+      <c r="AR44" s="37"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="39"/>
+      <c r="B45" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" s="9"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="37"/>
+      <c r="Q45" s="37"/>
+      <c r="T45" s="9"/>
+      <c r="U45" s="9"/>
+      <c r="V45" s="9"/>
+      <c r="W45" s="9"/>
+      <c r="X45" s="15"/>
+      <c r="Y45" s="6"/>
+      <c r="Z45" s="6"/>
+      <c r="AA45" s="6"/>
+      <c r="AE45" s="37"/>
+      <c r="AL45" s="37"/>
+      <c r="AR45" s="37"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="39"/>
+      <c r="B46" s="39"/>
+      <c r="C46" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="9"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="37"/>
+      <c r="Q46" s="37"/>
+      <c r="T46" s="9"/>
+      <c r="U46" s="9"/>
+      <c r="V46" s="9"/>
+      <c r="W46" s="9"/>
+      <c r="X46" s="15"/>
+      <c r="Y46" s="40"/>
+      <c r="Z46" s="40"/>
+      <c r="AA46" s="40"/>
+      <c r="AE46" s="37"/>
+      <c r="AL46" s="37"/>
+      <c r="AR46" s="37"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="C47" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" s="9"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="37"/>
+      <c r="Q47" s="37"/>
+      <c r="T47" s="9"/>
+      <c r="U47" s="9"/>
+      <c r="V47" s="9"/>
+      <c r="W47" s="9"/>
+      <c r="X47" s="15"/>
+      <c r="Y47" s="9"/>
+      <c r="Z47" s="9"/>
+      <c r="AA47" s="9"/>
+      <c r="AB47" s="6"/>
+      <c r="AC47" s="6"/>
+      <c r="AD47" s="6"/>
+      <c r="AE47" s="37"/>
+      <c r="AL47" s="37"/>
+      <c r="AR47" s="37"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="39"/>
+      <c r="B48" s="39"/>
+      <c r="C48" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" s="9"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="37"/>
+      <c r="Q48" s="37"/>
+      <c r="T48" s="9"/>
+      <c r="U48" s="9"/>
+      <c r="V48" s="9"/>
+      <c r="W48" s="9"/>
+      <c r="X48" s="15"/>
+      <c r="Y48" s="9"/>
+      <c r="Z48" s="9"/>
+      <c r="AA48" s="9"/>
+      <c r="AB48" s="40"/>
+      <c r="AC48" s="40"/>
+      <c r="AD48" s="40"/>
+      <c r="AE48" s="37"/>
+      <c r="AL48" s="37"/>
+      <c r="AR48" s="37"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="39"/>
+      <c r="B49" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="C49" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" s="9"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="37"/>
+      <c r="Q49" s="37"/>
+      <c r="T49" s="9"/>
+      <c r="U49" s="9"/>
+      <c r="V49" s="9"/>
+      <c r="W49" s="9"/>
+      <c r="X49" s="15"/>
+      <c r="Y49" s="9"/>
+      <c r="Z49" s="9"/>
+      <c r="AA49" s="9"/>
+      <c r="AB49" s="6"/>
+      <c r="AC49" s="6"/>
+      <c r="AD49" s="6"/>
+      <c r="AE49" s="37"/>
+      <c r="AL49" s="37"/>
+      <c r="AR49" s="37"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="39"/>
+      <c r="B50" s="39"/>
+      <c r="C50" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="9"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="37"/>
+      <c r="Q50" s="37"/>
+      <c r="T50" s="9"/>
+      <c r="U50" s="9"/>
+      <c r="V50" s="9"/>
+      <c r="W50" s="9"/>
+      <c r="X50" s="15"/>
+      <c r="Y50" s="9"/>
+      <c r="Z50" s="9"/>
+      <c r="AA50" s="9"/>
+      <c r="AB50" s="40"/>
+      <c r="AC50" s="40"/>
+      <c r="AD50" s="40"/>
+      <c r="AE50" s="37"/>
+      <c r="AL50" s="37"/>
+      <c r="AR50" s="37"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="B51" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="C51" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" s="9"/>
+      <c r="J51" s="37"/>
+      <c r="Q51" s="37"/>
+      <c r="T51" s="9"/>
+      <c r="U51" s="9"/>
+      <c r="V51" s="9"/>
+      <c r="W51" s="9"/>
+      <c r="X51" s="15"/>
+      <c r="Y51" s="9"/>
+      <c r="Z51" s="9"/>
+      <c r="AA51" s="9"/>
+      <c r="AB51" s="9"/>
+      <c r="AC51" s="9"/>
+      <c r="AD51" s="9"/>
+      <c r="AE51" s="43"/>
+      <c r="AF51" s="6"/>
+      <c r="AG51" s="6"/>
+      <c r="AH51" s="6"/>
+      <c r="AI51" s="6"/>
+      <c r="AJ51" s="6"/>
+      <c r="AK51" s="6"/>
+      <c r="AL51" s="37"/>
+      <c r="AR51" s="37"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="39"/>
+      <c r="B52" s="39"/>
+      <c r="C52" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" s="9"/>
+      <c r="J52" s="37"/>
+      <c r="Q52" s="37"/>
+      <c r="T52" s="9"/>
+      <c r="U52" s="9"/>
+      <c r="V52" s="9"/>
+      <c r="W52" s="9"/>
+      <c r="X52" s="15"/>
+      <c r="Y52" s="9"/>
+      <c r="Z52" s="9"/>
+      <c r="AA52" s="9"/>
+      <c r="AB52" s="9"/>
+      <c r="AC52" s="9"/>
+      <c r="AD52" s="9"/>
+      <c r="AE52" s="44"/>
+      <c r="AF52" s="40"/>
+      <c r="AG52" s="40"/>
+      <c r="AH52" s="40"/>
+      <c r="AI52" s="40"/>
+      <c r="AJ52" s="40"/>
+      <c r="AK52" s="40"/>
+      <c r="AL52" s="37"/>
+      <c r="AR52" s="37"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="39"/>
+      <c r="B53" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="C53" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" s="9"/>
+      <c r="J53" s="37"/>
+      <c r="Q53" s="37"/>
+      <c r="T53" s="9"/>
+      <c r="U53" s="9"/>
+      <c r="V53" s="9"/>
+      <c r="W53" s="9"/>
+      <c r="X53" s="15"/>
+      <c r="Y53" s="9"/>
+      <c r="Z53" s="9"/>
+      <c r="AA53" s="9"/>
+      <c r="AB53" s="9"/>
+      <c r="AC53" s="9"/>
+      <c r="AD53" s="9"/>
+      <c r="AE53" s="43"/>
+      <c r="AF53" s="6"/>
+      <c r="AG53" s="6"/>
+      <c r="AH53" s="6"/>
+      <c r="AI53" s="6"/>
+      <c r="AJ53" s="6"/>
+      <c r="AK53" s="6"/>
+      <c r="AL53" s="37"/>
+      <c r="AR53" s="37"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="39"/>
+      <c r="B54" s="39"/>
+      <c r="C54" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" s="9"/>
+      <c r="J54" s="37"/>
+      <c r="Q54" s="37"/>
+      <c r="T54" s="9"/>
+      <c r="U54" s="9"/>
+      <c r="V54" s="9"/>
+      <c r="W54" s="9"/>
+      <c r="X54" s="15"/>
+      <c r="Y54" s="9"/>
+      <c r="Z54" s="9"/>
+      <c r="AA54" s="9"/>
+      <c r="AB54" s="9"/>
+      <c r="AC54" s="9"/>
+      <c r="AD54" s="9"/>
+      <c r="AE54" s="44"/>
+      <c r="AF54" s="40"/>
+      <c r="AG54" s="40"/>
+      <c r="AH54" s="40"/>
+      <c r="AI54" s="40"/>
+      <c r="AJ54" s="40"/>
+      <c r="AK54" s="40"/>
+      <c r="AL54" s="37"/>
+      <c r="AR54" s="37"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="39"/>
+      <c r="B55" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="C55" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" s="9"/>
+      <c r="J55" s="37"/>
+      <c r="Q55" s="37"/>
+      <c r="T55" s="9"/>
+      <c r="U55" s="9"/>
+      <c r="V55" s="9"/>
+      <c r="W55" s="9"/>
+      <c r="X55" s="15"/>
+      <c r="Y55" s="9"/>
+      <c r="Z55" s="9"/>
+      <c r="AA55" s="9"/>
+      <c r="AB55" s="9"/>
+      <c r="AC55" s="9"/>
+      <c r="AD55" s="9"/>
+      <c r="AE55" s="43"/>
+      <c r="AF55" s="6"/>
+      <c r="AG55" s="6"/>
+      <c r="AH55" s="6"/>
+      <c r="AI55" s="6"/>
+      <c r="AJ55" s="6"/>
+      <c r="AK55" s="6"/>
+      <c r="AL55" s="37"/>
+      <c r="AR55" s="37"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="39"/>
+      <c r="B56" s="39"/>
+      <c r="C56" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" s="9"/>
+      <c r="J56" s="37"/>
+      <c r="Q56" s="37"/>
+      <c r="T56" s="9"/>
+      <c r="U56" s="9"/>
+      <c r="V56" s="9"/>
+      <c r="W56" s="9"/>
+      <c r="X56" s="15"/>
+      <c r="Y56" s="9"/>
+      <c r="Z56" s="9"/>
+      <c r="AA56" s="9"/>
+      <c r="AB56" s="9"/>
+      <c r="AC56" s="9"/>
+      <c r="AD56" s="9"/>
+      <c r="AE56" s="44"/>
+      <c r="AF56" s="40"/>
+      <c r="AG56" s="40"/>
+      <c r="AH56" s="40"/>
+      <c r="AI56" s="40"/>
+      <c r="AJ56" s="40"/>
+      <c r="AK56" s="40"/>
+      <c r="AL56" s="37"/>
+      <c r="AR56" s="37"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="39"/>
+      <c r="B57" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="C57" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57" s="9"/>
+      <c r="J57" s="37"/>
+      <c r="Q57" s="37"/>
+      <c r="T57" s="9"/>
+      <c r="U57" s="9"/>
+      <c r="V57" s="9"/>
+      <c r="W57" s="9"/>
+      <c r="X57" s="15"/>
+      <c r="Y57" s="9"/>
+      <c r="Z57" s="9"/>
+      <c r="AA57" s="9"/>
+      <c r="AB57" s="9"/>
+      <c r="AC57" s="9"/>
+      <c r="AD57" s="9"/>
+      <c r="AE57" s="43"/>
+      <c r="AF57" s="6"/>
+      <c r="AG57" s="6"/>
+      <c r="AH57" s="6"/>
+      <c r="AI57" s="6"/>
+      <c r="AJ57" s="6"/>
+      <c r="AK57" s="6"/>
+      <c r="AL57" s="37"/>
+      <c r="AR57" s="37"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="39"/>
+      <c r="B58" s="39"/>
+      <c r="C58" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" s="9"/>
+      <c r="J58" s="37"/>
+      <c r="Q58" s="37"/>
+      <c r="T58" s="9"/>
+      <c r="U58" s="9"/>
+      <c r="V58" s="9"/>
+      <c r="W58" s="9"/>
+      <c r="X58" s="15"/>
+      <c r="Y58" s="9"/>
+      <c r="Z58" s="9"/>
+      <c r="AA58" s="9"/>
+      <c r="AB58" s="9"/>
+      <c r="AC58" s="9"/>
+      <c r="AD58" s="9"/>
+      <c r="AE58" s="44"/>
+      <c r="AF58" s="40"/>
+      <c r="AG58" s="40"/>
+      <c r="AH58" s="40"/>
+      <c r="AI58" s="40"/>
+      <c r="AJ58" s="40"/>
+      <c r="AK58" s="40"/>
+      <c r="AL58" s="37"/>
+      <c r="AR58" s="37"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="39"/>
+      <c r="B59" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="C59" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59" s="9"/>
+      <c r="J59" s="37"/>
+      <c r="Q59" s="37"/>
+      <c r="T59" s="9"/>
+      <c r="U59" s="9"/>
+      <c r="V59" s="9"/>
+      <c r="W59" s="9"/>
+      <c r="X59" s="15"/>
+      <c r="Y59" s="9"/>
+      <c r="Z59" s="9"/>
+      <c r="AA59" s="9"/>
+      <c r="AB59" s="9"/>
+      <c r="AC59" s="9"/>
+      <c r="AD59" s="9"/>
+      <c r="AE59" s="43"/>
+      <c r="AF59" s="6"/>
+      <c r="AG59" s="6"/>
+      <c r="AH59" s="6"/>
+      <c r="AI59" s="6"/>
+      <c r="AJ59" s="6"/>
+      <c r="AK59" s="6"/>
+      <c r="AL59" s="37"/>
+      <c r="AR59" s="37"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="39"/>
+      <c r="B60" s="39"/>
+      <c r="C60" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" s="9"/>
+      <c r="J60" s="37"/>
+      <c r="Q60" s="37"/>
+      <c r="T60" s="9"/>
+      <c r="U60" s="9"/>
+      <c r="V60" s="9"/>
+      <c r="W60" s="9"/>
+      <c r="X60" s="15"/>
+      <c r="Y60" s="9"/>
+      <c r="Z60" s="9"/>
+      <c r="AA60" s="9"/>
+      <c r="AB60" s="9"/>
+      <c r="AC60" s="9"/>
+      <c r="AD60" s="9"/>
+      <c r="AE60" s="44"/>
+      <c r="AF60" s="40"/>
+      <c r="AG60" s="40"/>
+      <c r="AH60" s="40"/>
+      <c r="AI60" s="40"/>
+      <c r="AJ60" s="40"/>
+      <c r="AK60" s="40"/>
+      <c r="AL60" s="37"/>
+      <c r="AR60" s="37"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="39"/>
+      <c r="B61" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="C61" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D61" s="9"/>
+      <c r="J61" s="37"/>
+      <c r="Q61" s="37"/>
+      <c r="T61" s="9"/>
+      <c r="U61" s="9"/>
+      <c r="V61" s="9"/>
+      <c r="W61" s="9"/>
+      <c r="X61" s="15"/>
+      <c r="Y61" s="9"/>
+      <c r="Z61" s="9"/>
+      <c r="AA61" s="9"/>
+      <c r="AB61" s="9"/>
+      <c r="AC61" s="9"/>
+      <c r="AD61" s="9"/>
+      <c r="AE61" s="43"/>
+      <c r="AF61" s="6"/>
+      <c r="AG61" s="6"/>
+      <c r="AH61" s="6"/>
+      <c r="AI61" s="6"/>
+      <c r="AJ61" s="6"/>
+      <c r="AK61" s="6"/>
+      <c r="AL61" s="37"/>
+      <c r="AR61" s="37"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="39"/>
+      <c r="B62" s="39"/>
+      <c r="C62" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="9"/>
+      <c r="J62" s="37"/>
+      <c r="Q62" s="37"/>
+      <c r="T62" s="9"/>
+      <c r="U62" s="9"/>
+      <c r="V62" s="9"/>
+      <c r="W62" s="9"/>
+      <c r="X62" s="15"/>
+      <c r="Y62" s="9"/>
+      <c r="Z62" s="9"/>
+      <c r="AA62" s="9"/>
+      <c r="AB62" s="9"/>
+      <c r="AC62" s="9"/>
+      <c r="AD62" s="9"/>
+      <c r="AE62" s="44"/>
+      <c r="AF62" s="40"/>
+      <c r="AG62" s="40"/>
+      <c r="AH62" s="40"/>
+      <c r="AI62" s="40"/>
+      <c r="AJ62" s="40"/>
+      <c r="AK62" s="40"/>
+      <c r="AL62" s="37"/>
+      <c r="AR62" s="37"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="B63" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="C63" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D63" s="9"/>
+      <c r="J63" s="37"/>
+      <c r="Q63" s="37"/>
+      <c r="X63" s="15"/>
+      <c r="Y63" s="9"/>
+      <c r="Z63" s="9"/>
+      <c r="AA63" s="9"/>
+      <c r="AB63" s="9"/>
+      <c r="AC63" s="9"/>
+      <c r="AD63" s="9"/>
+      <c r="AE63" s="15"/>
+      <c r="AF63" s="9"/>
+      <c r="AG63" s="9"/>
+      <c r="AH63" s="9"/>
+      <c r="AI63" s="9"/>
+      <c r="AJ63" s="9"/>
+      <c r="AK63" s="9"/>
+      <c r="AL63" s="43"/>
+      <c r="AM63" s="6"/>
+      <c r="AR63" s="37"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="39"/>
+      <c r="B64" s="39"/>
+      <c r="C64" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64" s="9"/>
+      <c r="J64" s="37"/>
+      <c r="Q64" s="37"/>
+      <c r="X64" s="15"/>
+      <c r="Y64" s="9"/>
+      <c r="Z64" s="9"/>
+      <c r="AA64" s="9"/>
+      <c r="AB64" s="9"/>
+      <c r="AC64" s="9"/>
+      <c r="AD64" s="9"/>
+      <c r="AE64" s="15"/>
+      <c r="AF64" s="9"/>
+      <c r="AG64" s="9"/>
+      <c r="AH64" s="9"/>
+      <c r="AI64" s="9"/>
+      <c r="AJ64" s="9"/>
+      <c r="AK64" s="9"/>
+      <c r="AL64" s="44"/>
+      <c r="AM64" s="40"/>
+      <c r="AR64" s="37"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="39"/>
+      <c r="B65" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="C65" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D65" s="9"/>
+      <c r="J65" s="37"/>
+      <c r="Q65" s="37"/>
+      <c r="X65" s="15"/>
+      <c r="Y65" s="9"/>
+      <c r="Z65" s="9"/>
+      <c r="AA65" s="9"/>
+      <c r="AB65" s="9"/>
+      <c r="AC65" s="9"/>
+      <c r="AD65" s="9"/>
+      <c r="AE65" s="15"/>
+      <c r="AF65" s="9"/>
+      <c r="AG65" s="9"/>
+      <c r="AH65" s="9"/>
+      <c r="AI65" s="9"/>
+      <c r="AJ65" s="9"/>
+      <c r="AK65" s="9"/>
+      <c r="AL65" s="43"/>
+      <c r="AM65" s="6"/>
+      <c r="AR65" s="37"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="39"/>
+      <c r="B66" s="39"/>
+      <c r="C66" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66" s="9"/>
+      <c r="J66" s="37"/>
+      <c r="Q66" s="37"/>
+      <c r="X66" s="15"/>
+      <c r="Y66" s="9"/>
+      <c r="Z66" s="9"/>
+      <c r="AA66" s="9"/>
+      <c r="AB66" s="9"/>
+      <c r="AC66" s="9"/>
+      <c r="AD66" s="9"/>
+      <c r="AE66" s="15"/>
+      <c r="AF66" s="9"/>
+      <c r="AG66" s="9"/>
+      <c r="AH66" s="9"/>
+      <c r="AI66" s="9"/>
+      <c r="AJ66" s="9"/>
+      <c r="AK66" s="9"/>
+      <c r="AL66" s="44"/>
+      <c r="AM66" s="40"/>
+      <c r="AR66" s="37"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="39"/>
+      <c r="B67" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="C67" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D67" s="9"/>
+      <c r="J67" s="37"/>
+      <c r="Q67" s="37"/>
+      <c r="X67" s="15"/>
+      <c r="Y67" s="9"/>
+      <c r="Z67" s="9"/>
+      <c r="AA67" s="9"/>
+      <c r="AB67" s="9"/>
+      <c r="AC67" s="9"/>
+      <c r="AD67" s="9"/>
+      <c r="AE67" s="15"/>
+      <c r="AF67" s="9"/>
+      <c r="AG67" s="9"/>
+      <c r="AH67" s="9"/>
+      <c r="AI67" s="9"/>
+      <c r="AJ67" s="9"/>
+      <c r="AK67" s="9"/>
+      <c r="AL67" s="43"/>
+      <c r="AM67" s="6"/>
+      <c r="AR67" s="37"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="39"/>
+      <c r="B68" s="39"/>
+      <c r="C68" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" s="9"/>
+      <c r="J68" s="37"/>
+      <c r="Q68" s="37"/>
+      <c r="X68" s="15"/>
+      <c r="Y68" s="9"/>
+      <c r="Z68" s="9"/>
+      <c r="AA68" s="9"/>
+      <c r="AB68" s="9"/>
+      <c r="AC68" s="9"/>
+      <c r="AD68" s="9"/>
+      <c r="AE68" s="15"/>
+      <c r="AF68" s="9"/>
+      <c r="AG68" s="9"/>
+      <c r="AH68" s="9"/>
+      <c r="AI68" s="9"/>
+      <c r="AJ68" s="9"/>
+      <c r="AK68" s="9"/>
+      <c r="AL68" s="44"/>
+      <c r="AM68" s="40"/>
+      <c r="AR68" s="37"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="39"/>
+      <c r="B69" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="C69" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D69" s="9"/>
+      <c r="J69" s="37"/>
+      <c r="Q69" s="37"/>
+      <c r="X69" s="15"/>
+      <c r="Y69" s="9"/>
+      <c r="Z69" s="9"/>
+      <c r="AA69" s="9"/>
+      <c r="AB69" s="9"/>
+      <c r="AC69" s="9"/>
+      <c r="AD69" s="9"/>
+      <c r="AE69" s="15"/>
+      <c r="AF69" s="9"/>
+      <c r="AG69" s="9"/>
+      <c r="AH69" s="9"/>
+      <c r="AI69" s="9"/>
+      <c r="AJ69" s="9"/>
+      <c r="AK69" s="9"/>
+      <c r="AL69" s="43"/>
+      <c r="AM69" s="6"/>
+      <c r="AR69" s="37"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="39"/>
+      <c r="B70" s="39"/>
+      <c r="C70" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70" s="9"/>
+      <c r="J70" s="37"/>
+      <c r="Q70" s="37"/>
+      <c r="X70" s="15"/>
+      <c r="Y70" s="9"/>
+      <c r="Z70" s="9"/>
+      <c r="AA70" s="9"/>
+      <c r="AB70" s="9"/>
+      <c r="AC70" s="9"/>
+      <c r="AD70" s="9"/>
+      <c r="AE70" s="15"/>
+      <c r="AF70" s="9"/>
+      <c r="AG70" s="9"/>
+      <c r="AH70" s="9"/>
+      <c r="AI70" s="9"/>
+      <c r="AJ70" s="9"/>
+      <c r="AK70" s="9"/>
+      <c r="AL70" s="44"/>
+      <c r="AM70" s="40"/>
+      <c r="AR70" s="37"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="39"/>
+      <c r="B71" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="C71" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D71" s="9"/>
+      <c r="J71" s="37"/>
+      <c r="Q71" s="37"/>
+      <c r="X71" s="15"/>
+      <c r="Y71" s="9"/>
+      <c r="Z71" s="9"/>
+      <c r="AA71" s="9"/>
+      <c r="AB71" s="9"/>
+      <c r="AC71" s="9"/>
+      <c r="AD71" s="9"/>
+      <c r="AE71" s="15"/>
+      <c r="AF71" s="9"/>
+      <c r="AG71" s="9"/>
+      <c r="AH71" s="9"/>
+      <c r="AI71" s="9"/>
+      <c r="AJ71" s="9"/>
+      <c r="AK71" s="9"/>
+      <c r="AL71" s="43"/>
+      <c r="AM71" s="6"/>
+      <c r="AR71" s="37"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="39"/>
+      <c r="B72" s="39"/>
+      <c r="C72" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72" s="9"/>
+      <c r="J72" s="37"/>
+      <c r="Q72" s="37"/>
+      <c r="X72" s="15"/>
+      <c r="Y72" s="9"/>
+      <c r="Z72" s="9"/>
+      <c r="AA72" s="9"/>
+      <c r="AB72" s="9"/>
+      <c r="AC72" s="9"/>
+      <c r="AD72" s="9"/>
+      <c r="AE72" s="15"/>
+      <c r="AF72" s="9"/>
+      <c r="AG72" s="9"/>
+      <c r="AH72" s="9"/>
+      <c r="AI72" s="9"/>
+      <c r="AJ72" s="9"/>
+      <c r="AK72" s="9"/>
+      <c r="AL72" s="44"/>
+      <c r="AM72" s="40"/>
+      <c r="AR72" s="37"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="39"/>
+      <c r="B73" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="C73" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D73" s="9"/>
+      <c r="J73" s="37"/>
+      <c r="Q73" s="37"/>
+      <c r="X73" s="15"/>
+      <c r="Y73" s="9"/>
+      <c r="Z73" s="9"/>
+      <c r="AA73" s="9"/>
+      <c r="AB73" s="9"/>
+      <c r="AC73" s="9"/>
+      <c r="AD73" s="9"/>
+      <c r="AE73" s="15"/>
+      <c r="AF73" s="9"/>
+      <c r="AG73" s="9"/>
+      <c r="AH73" s="9"/>
+      <c r="AI73" s="9"/>
+      <c r="AJ73" s="9"/>
+      <c r="AK73" s="9"/>
+      <c r="AL73" s="43"/>
+      <c r="AM73" s="6"/>
+      <c r="AR73" s="37"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="39"/>
+      <c r="B74" s="39"/>
+      <c r="C74" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D74" s="9"/>
+      <c r="J74" s="37"/>
+      <c r="Q74" s="37"/>
+      <c r="X74" s="15"/>
+      <c r="Y74" s="9"/>
+      <c r="Z74" s="9"/>
+      <c r="AA74" s="9"/>
+      <c r="AB74" s="9"/>
+      <c r="AC74" s="9"/>
+      <c r="AD74" s="9"/>
+      <c r="AE74" s="15"/>
+      <c r="AF74" s="9"/>
+      <c r="AG74" s="9"/>
+      <c r="AH74" s="9"/>
+      <c r="AI74" s="9"/>
+      <c r="AJ74" s="9"/>
+      <c r="AK74" s="9"/>
+      <c r="AL74" s="44"/>
+      <c r="AM74" s="40"/>
+      <c r="AR74" s="37"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="39"/>
+      <c r="B75" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C75" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D75" s="9"/>
+      <c r="J75" s="37"/>
+      <c r="Q75" s="37"/>
+      <c r="X75" s="15"/>
+      <c r="Y75" s="9"/>
+      <c r="Z75" s="9"/>
+      <c r="AA75" s="9"/>
+      <c r="AB75" s="9"/>
+      <c r="AC75" s="9"/>
+      <c r="AD75" s="9"/>
+      <c r="AE75" s="15"/>
+      <c r="AF75" s="9"/>
+      <c r="AG75" s="9"/>
+      <c r="AH75" s="9"/>
+      <c r="AI75" s="9"/>
+      <c r="AJ75" s="9"/>
+      <c r="AK75" s="9"/>
+      <c r="AL75" s="43"/>
+      <c r="AM75" s="6"/>
+      <c r="AR75" s="37"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="39"/>
+      <c r="B76" s="39"/>
+      <c r="C76" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D76" s="9"/>
+      <c r="J76" s="37"/>
+      <c r="Q76" s="37"/>
+      <c r="X76" s="15"/>
+      <c r="Y76" s="9"/>
+      <c r="Z76" s="9"/>
+      <c r="AA76" s="9"/>
+      <c r="AB76" s="9"/>
+      <c r="AC76" s="9"/>
+      <c r="AD76" s="9"/>
+      <c r="AE76" s="15"/>
+      <c r="AF76" s="9"/>
+      <c r="AG76" s="9"/>
+      <c r="AH76" s="9"/>
+      <c r="AI76" s="9"/>
+      <c r="AJ76" s="9"/>
+      <c r="AK76" s="9"/>
+      <c r="AL76" s="44"/>
+      <c r="AM76" s="40"/>
+      <c r="AR76" s="37"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="39"/>
+      <c r="B77" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="C77" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D77" s="9"/>
+      <c r="J77" s="37"/>
+      <c r="Q77" s="37"/>
+      <c r="X77" s="15"/>
+      <c r="Y77" s="9"/>
+      <c r="Z77" s="9"/>
+      <c r="AA77" s="9"/>
+      <c r="AB77" s="9"/>
+      <c r="AC77" s="9"/>
+      <c r="AD77" s="9"/>
+      <c r="AE77" s="15"/>
+      <c r="AF77" s="9"/>
+      <c r="AG77" s="9"/>
+      <c r="AH77" s="9"/>
+      <c r="AI77" s="9"/>
+      <c r="AJ77" s="9"/>
+      <c r="AK77" s="9"/>
+      <c r="AL77" s="43"/>
+      <c r="AM77" s="6"/>
+      <c r="AR77" s="37"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="39"/>
+      <c r="B78" s="39"/>
+      <c r="C78" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D78" s="9"/>
+      <c r="J78" s="37"/>
+      <c r="Q78" s="37"/>
+      <c r="X78" s="15"/>
+      <c r="Y78" s="9"/>
+      <c r="Z78" s="9"/>
+      <c r="AA78" s="9"/>
+      <c r="AB78" s="9"/>
+      <c r="AC78" s="9"/>
+      <c r="AD78" s="9"/>
+      <c r="AE78" s="15"/>
+      <c r="AF78" s="9"/>
+      <c r="AG78" s="9"/>
+      <c r="AH78" s="9"/>
+      <c r="AI78" s="9"/>
+      <c r="AJ78" s="9"/>
+      <c r="AK78" s="9"/>
+      <c r="AL78" s="44"/>
+      <c r="AM78" s="40"/>
+      <c r="AR78" s="37"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="B79" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="C79" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D79" s="9"/>
+      <c r="J79" s="37"/>
+      <c r="Q79" s="37"/>
+      <c r="X79" s="37"/>
+      <c r="Y79" s="38"/>
+      <c r="AE79" s="37"/>
+      <c r="AL79" s="37"/>
+      <c r="AM79" s="9"/>
+      <c r="AN79" s="6"/>
+      <c r="AO79" s="6"/>
+      <c r="AP79" s="6"/>
+      <c r="AR79" s="37"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="39"/>
+      <c r="B80" s="39"/>
+      <c r="C80" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D80" s="9"/>
+      <c r="J80" s="37"/>
+      <c r="Q80" s="37"/>
+      <c r="X80" s="37"/>
+      <c r="Y80" s="38"/>
+      <c r="AE80" s="37"/>
+      <c r="AL80" s="37"/>
+      <c r="AM80" s="9"/>
+      <c r="AN80" s="40"/>
+      <c r="AO80" s="40"/>
+      <c r="AP80" s="40"/>
+      <c r="AR80" s="37"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="39"/>
+      <c r="B81" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="C81" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D81" s="9"/>
+      <c r="J81" s="37"/>
+      <c r="Q81" s="37"/>
+      <c r="X81" s="37"/>
+      <c r="Y81" s="38"/>
+      <c r="AE81" s="37"/>
+      <c r="AL81" s="37"/>
+      <c r="AM81" s="9"/>
+      <c r="AN81" s="6"/>
+      <c r="AO81" s="6"/>
+      <c r="AP81" s="6"/>
+      <c r="AR81" s="37"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="39"/>
+      <c r="B82" s="39"/>
+      <c r="C82" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D82" s="9"/>
+      <c r="J82" s="37"/>
+      <c r="Q82" s="37"/>
+      <c r="X82" s="37"/>
+      <c r="Y82" s="38"/>
+      <c r="AE82" s="37"/>
+      <c r="AL82" s="37"/>
+      <c r="AM82" s="9"/>
+      <c r="AN82" s="40"/>
+      <c r="AO82" s="40"/>
+      <c r="AP82" s="40"/>
+      <c r="AR82" s="37"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="39"/>
+      <c r="B83" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="C83" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D83" s="9"/>
+      <c r="J83" s="37"/>
+      <c r="Q83" s="37"/>
+      <c r="X83" s="37"/>
+      <c r="Y83" s="38"/>
+      <c r="AE83" s="37"/>
+      <c r="AL83" s="37"/>
+      <c r="AM83" s="9"/>
+      <c r="AN83" s="6"/>
+      <c r="AO83" s="6"/>
+      <c r="AP83" s="6"/>
+      <c r="AR83" s="37"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="39"/>
+      <c r="B84" s="39"/>
+      <c r="C84" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D84" s="9"/>
+      <c r="J84" s="37"/>
+      <c r="Q84" s="37"/>
+      <c r="X84" s="37"/>
+      <c r="Y84" s="38"/>
+      <c r="AE84" s="37"/>
+      <c r="AL84" s="37"/>
+      <c r="AM84" s="9"/>
+      <c r="AN84" s="40"/>
+      <c r="AO84" s="40"/>
+      <c r="AP84" s="40"/>
+      <c r="AR84" s="37"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="39"/>
+      <c r="B85" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="C85" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D85" s="9"/>
+      <c r="J85" s="37"/>
+      <c r="Q85" s="37"/>
+      <c r="X85" s="37"/>
+      <c r="Y85" s="38"/>
+      <c r="AE85" s="37"/>
+      <c r="AL85" s="37"/>
+      <c r="AM85" s="9"/>
+      <c r="AN85" s="6"/>
+      <c r="AO85" s="6"/>
+      <c r="AP85" s="6"/>
+      <c r="AR85" s="37"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="39"/>
+      <c r="B86" s="39"/>
+      <c r="C86" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D86" s="9"/>
+      <c r="J86" s="37"/>
+      <c r="Q86" s="37"/>
+      <c r="X86" s="37"/>
+      <c r="Y86" s="38"/>
+      <c r="AE86" s="37"/>
+      <c r="AL86" s="37"/>
+      <c r="AM86" s="9"/>
+      <c r="AN86" s="40"/>
+      <c r="AO86" s="40"/>
+      <c r="AP86" s="40"/>
+      <c r="AR86" s="37"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="39"/>
+      <c r="B87" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="C87" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D87" s="9"/>
+      <c r="J87" s="37"/>
+      <c r="Q87" s="37"/>
+      <c r="X87" s="37"/>
+      <c r="Y87" s="38"/>
+      <c r="AE87" s="37"/>
+      <c r="AL87" s="37"/>
+      <c r="AM87" s="9"/>
+      <c r="AN87" s="6"/>
+      <c r="AO87" s="6"/>
+      <c r="AP87" s="6"/>
+      <c r="AR87" s="37"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="39"/>
+      <c r="B88" s="39"/>
+      <c r="C88" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D88" s="9"/>
+      <c r="J88" s="37"/>
+      <c r="Q88" s="37"/>
+      <c r="X88" s="37"/>
+      <c r="Y88" s="38"/>
+      <c r="AE88" s="37"/>
+      <c r="AL88" s="37"/>
+      <c r="AM88" s="9"/>
+      <c r="AN88" s="40"/>
+      <c r="AO88" s="40"/>
+      <c r="AP88" s="40"/>
+      <c r="AR88" s="37"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="39"/>
+      <c r="B89" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="C89" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D89" s="9"/>
+      <c r="J89" s="37"/>
+      <c r="Q89" s="37"/>
+      <c r="X89" s="37"/>
+      <c r="Y89" s="38"/>
+      <c r="AE89" s="37"/>
+      <c r="AL89" s="37"/>
+      <c r="AM89" s="9"/>
+      <c r="AN89" s="6"/>
+      <c r="AO89" s="6"/>
+      <c r="AP89" s="6"/>
+      <c r="AR89" s="37"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="39"/>
+      <c r="B90" s="39"/>
+      <c r="C90" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D90" s="9"/>
+      <c r="J90" s="37"/>
+      <c r="Q90" s="37"/>
+      <c r="X90" s="37"/>
+      <c r="Y90" s="38"/>
+      <c r="AE90" s="37"/>
+      <c r="AL90" s="37"/>
+      <c r="AM90" s="9"/>
+      <c r="AN90" s="40"/>
+      <c r="AO90" s="40"/>
+      <c r="AP90" s="40"/>
+      <c r="AR90" s="37"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="B91" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="C91" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D91" s="9"/>
+      <c r="J91" s="37"/>
+      <c r="Q91" s="37"/>
+      <c r="X91" s="37"/>
+      <c r="Y91" s="38"/>
+      <c r="AE91" s="37"/>
+      <c r="AL91" s="37"/>
+      <c r="AQ91" s="6"/>
+      <c r="AR91" s="43"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="39"/>
+      <c r="B92" s="39"/>
+      <c r="C92" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D92" s="9"/>
+      <c r="J92" s="37"/>
+      <c r="Q92" s="37"/>
+      <c r="X92" s="37"/>
+      <c r="Y92" s="38"/>
+      <c r="AE92" s="37"/>
+      <c r="AL92" s="37"/>
+      <c r="AQ92" s="40"/>
+      <c r="AR92" s="44"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="39"/>
+      <c r="B93" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="C93" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D93" s="9"/>
+      <c r="J93" s="37"/>
+      <c r="Q93" s="37"/>
+      <c r="X93" s="37"/>
+      <c r="Y93" s="38"/>
+      <c r="AE93" s="37"/>
+      <c r="AL93" s="37"/>
+      <c r="AQ93" s="6"/>
+      <c r="AR93" s="43"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="49"/>
+      <c r="B94" s="49"/>
+      <c r="C94" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="D94" s="18"/>
+      <c r="E94" s="51"/>
+      <c r="F94" s="51"/>
+      <c r="G94" s="51"/>
+      <c r="H94" s="51"/>
+      <c r="I94" s="51"/>
+      <c r="J94" s="52"/>
+      <c r="K94" s="51"/>
+      <c r="L94" s="51"/>
+      <c r="M94" s="51"/>
+      <c r="N94" s="51"/>
+      <c r="O94" s="51"/>
+      <c r="P94" s="51"/>
+      <c r="Q94" s="52"/>
+      <c r="R94" s="51"/>
+      <c r="S94" s="51"/>
+      <c r="T94" s="51"/>
+      <c r="U94" s="51"/>
+      <c r="V94" s="51"/>
+      <c r="W94" s="51"/>
+      <c r="X94" s="52"/>
+      <c r="Y94" s="53"/>
+      <c r="Z94" s="51"/>
+      <c r="AA94" s="51"/>
+      <c r="AB94" s="51"/>
+      <c r="AC94" s="51"/>
+      <c r="AD94" s="51"/>
+      <c r="AE94" s="52"/>
+      <c r="AF94" s="51"/>
+      <c r="AG94" s="51"/>
+      <c r="AH94" s="51"/>
+      <c r="AI94" s="51"/>
+      <c r="AJ94" s="51"/>
+      <c r="AK94" s="51"/>
+      <c r="AL94" s="52"/>
+      <c r="AM94" s="51"/>
+      <c r="AN94" s="51"/>
+      <c r="AO94" s="51"/>
+      <c r="AP94" s="51"/>
+      <c r="AQ94" s="54"/>
+      <c r="AR94" s="55"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="56"/>
+      <c r="AQ95" s="9"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="56"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="56"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="56"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="56"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="56"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="56"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="56"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="56"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="56"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="56"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="56"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="56"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="56"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="56"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="56"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="56"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="56"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="56"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="56"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="56"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="56"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="56"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="56"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="56"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="56"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="56"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="56"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="56"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="56"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="56"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="56"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="56"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="56"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="56"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="56"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="56"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="56"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="56"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="56"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="56"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="56"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="56"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="56"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="56"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="56"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="56"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="56"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="56"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="56"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="56"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="56"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="56"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="56"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="56"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="56"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="56"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="56"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="56"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="56"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="56"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="56"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="56"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="56"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="56"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="56"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="56"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="56"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="56"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="56"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="56"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="56"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="56"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="56"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="56"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="56"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="56"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="56"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="56"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="56"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="56"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="56"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="56"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="56"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="56"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="56"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="56"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="56"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="56"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="56"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="56"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="56"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="56"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="56"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="56"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="56"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="56"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="56"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="56"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="56"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="56"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="56"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="56"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="56"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="56"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="56"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="56"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="56"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="56"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="56"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="56"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="56"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="56"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="56"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="56"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="56"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="56"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="56"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="56"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="56"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="56"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="56"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="56"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="56"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="56"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="56"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="56"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="56"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="56"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="56"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="56"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="56"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="56"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="56"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="56"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="56"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="56"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="56"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="56"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="56"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="56"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="56"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="56"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="56"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="56"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="56"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="56"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="56"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="56"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="56"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="56"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="56"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="56"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="56"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="56"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="56"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="56"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="56"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="56"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="56"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="56"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="56"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="56"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="56"/>
+    </row>
+    <row r="259">
+      <c r="A259" s="56"/>
+    </row>
+    <row r="260">
+      <c r="A260" s="56"/>
+    </row>
+    <row r="261">
+      <c r="A261" s="56"/>
+    </row>
+    <row r="262">
+      <c r="A262" s="56"/>
+    </row>
+    <row r="263">
+      <c r="A263" s="56"/>
+    </row>
+    <row r="264">
+      <c r="A264" s="56"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="56"/>
+    </row>
+    <row r="266">
+      <c r="A266" s="56"/>
+    </row>
+    <row r="267">
+      <c r="A267" s="56"/>
+    </row>
+    <row r="268">
+      <c r="A268" s="56"/>
+    </row>
+    <row r="269">
+      <c r="A269" s="56"/>
+    </row>
+    <row r="270">
+      <c r="A270" s="56"/>
+    </row>
+    <row r="271">
+      <c r="A271" s="56"/>
+    </row>
+    <row r="272">
+      <c r="A272" s="56"/>
+    </row>
+    <row r="273">
+      <c r="A273" s="56"/>
+    </row>
+    <row r="274">
+      <c r="A274" s="56"/>
+    </row>
+    <row r="275">
+      <c r="A275" s="56"/>
+    </row>
+    <row r="276">
+      <c r="A276" s="56"/>
+    </row>
+    <row r="277">
+      <c r="A277" s="56"/>
+    </row>
+    <row r="278">
+      <c r="A278" s="56"/>
+    </row>
+    <row r="279">
+      <c r="A279" s="56"/>
+    </row>
+    <row r="280">
+      <c r="A280" s="56"/>
+    </row>
+    <row r="281">
+      <c r="A281" s="56"/>
+    </row>
+    <row r="282">
+      <c r="A282" s="56"/>
+    </row>
+    <row r="283">
+      <c r="A283" s="56"/>
+    </row>
+    <row r="284">
+      <c r="A284" s="56"/>
+    </row>
+    <row r="285">
+      <c r="A285" s="56"/>
+    </row>
+    <row r="286">
+      <c r="A286" s="56"/>
+    </row>
+    <row r="287">
+      <c r="A287" s="56"/>
+    </row>
+    <row r="288">
+      <c r="A288" s="56"/>
+    </row>
+    <row r="289">
+      <c r="A289" s="56"/>
+    </row>
+    <row r="290">
+      <c r="A290" s="56"/>
+    </row>
+    <row r="291">
+      <c r="A291" s="56"/>
+    </row>
+    <row r="292">
+      <c r="A292" s="56"/>
+    </row>
+    <row r="293">
+      <c r="A293" s="56"/>
+    </row>
+    <row r="294">
+      <c r="A294" s="56"/>
+    </row>
+    <row r="295">
+      <c r="A295" s="56"/>
+    </row>
+    <row r="296">
+      <c r="A296" s="56"/>
+    </row>
+    <row r="297">
+      <c r="A297" s="56"/>
+    </row>
+    <row r="298">
+      <c r="A298" s="56"/>
+    </row>
+    <row r="299">
+      <c r="A299" s="56"/>
+    </row>
+    <row r="300">
+      <c r="A300" s="56"/>
+    </row>
+    <row r="301">
+      <c r="A301" s="56"/>
+    </row>
+    <row r="302">
+      <c r="A302" s="56"/>
+    </row>
+    <row r="303">
+      <c r="A303" s="56"/>
+    </row>
+    <row r="304">
+      <c r="A304" s="56"/>
+    </row>
+    <row r="305">
+      <c r="A305" s="56"/>
+    </row>
+    <row r="306">
+      <c r="A306" s="56"/>
+    </row>
+    <row r="307">
+      <c r="A307" s="56"/>
+    </row>
+    <row r="308">
+      <c r="A308" s="56"/>
+    </row>
+    <row r="309">
+      <c r="A309" s="56"/>
+    </row>
+    <row r="310">
+      <c r="A310" s="56"/>
+    </row>
+    <row r="311">
+      <c r="A311" s="56"/>
+    </row>
+    <row r="312">
+      <c r="A312" s="56"/>
+    </row>
+    <row r="313">
+      <c r="A313" s="56"/>
+    </row>
+    <row r="314">
+      <c r="A314" s="56"/>
+    </row>
+    <row r="315">
+      <c r="A315" s="56"/>
+    </row>
+    <row r="316">
+      <c r="A316" s="56"/>
+    </row>
+    <row r="317">
+      <c r="A317" s="56"/>
+    </row>
+    <row r="318">
+      <c r="A318" s="56"/>
+    </row>
+    <row r="319">
+      <c r="A319" s="56"/>
+    </row>
+    <row r="320">
+      <c r="A320" s="56"/>
+    </row>
+    <row r="321">
+      <c r="A321" s="56"/>
+    </row>
+    <row r="322">
+      <c r="A322" s="56"/>
+    </row>
+    <row r="323">
+      <c r="A323" s="56"/>
+    </row>
+    <row r="324">
+      <c r="A324" s="56"/>
+    </row>
+    <row r="325">
+      <c r="A325" s="56"/>
+    </row>
+    <row r="326">
+      <c r="A326" s="56"/>
+    </row>
+    <row r="327">
+      <c r="A327" s="56"/>
+    </row>
+    <row r="328">
+      <c r="A328" s="56"/>
+    </row>
+    <row r="329">
+      <c r="A329" s="56"/>
+    </row>
+    <row r="330">
+      <c r="A330" s="56"/>
+    </row>
+    <row r="331">
+      <c r="A331" s="56"/>
+    </row>
+    <row r="332">
+      <c r="A332" s="56"/>
+    </row>
+    <row r="333">
+      <c r="A333" s="56"/>
+    </row>
+    <row r="334">
+      <c r="A334" s="56"/>
+    </row>
+    <row r="335">
+      <c r="A335" s="56"/>
+    </row>
+    <row r="336">
+      <c r="A336" s="56"/>
+    </row>
+    <row r="337">
+      <c r="A337" s="56"/>
+    </row>
+    <row r="338">
+      <c r="A338" s="56"/>
+    </row>
+    <row r="339">
+      <c r="A339" s="56"/>
+    </row>
+    <row r="340">
+      <c r="A340" s="56"/>
+    </row>
+    <row r="341">
+      <c r="A341" s="56"/>
+    </row>
+    <row r="342">
+      <c r="A342" s="56"/>
+    </row>
+    <row r="343">
+      <c r="A343" s="56"/>
+    </row>
+    <row r="344">
+      <c r="A344" s="56"/>
+    </row>
+    <row r="345">
+      <c r="A345" s="56"/>
+    </row>
+    <row r="346">
+      <c r="A346" s="56"/>
+    </row>
+    <row r="347">
+      <c r="A347" s="56"/>
+    </row>
+    <row r="348">
+      <c r="A348" s="56"/>
+    </row>
+    <row r="349">
+      <c r="A349" s="56"/>
+    </row>
+    <row r="350">
+      <c r="A350" s="56"/>
+    </row>
+    <row r="351">
+      <c r="A351" s="56"/>
+    </row>
+    <row r="352">
+      <c r="A352" s="56"/>
+    </row>
+    <row r="353">
+      <c r="A353" s="56"/>
+    </row>
+    <row r="354">
+      <c r="A354" s="56"/>
+    </row>
+    <row r="355">
+      <c r="A355" s="56"/>
+    </row>
+    <row r="356">
+      <c r="A356" s="56"/>
+    </row>
+    <row r="357">
+      <c r="A357" s="56"/>
+    </row>
+    <row r="358">
+      <c r="A358" s="56"/>
+    </row>
+    <row r="359">
+      <c r="A359" s="56"/>
+    </row>
+    <row r="360">
+      <c r="A360" s="56"/>
+    </row>
+    <row r="361">
+      <c r="A361" s="56"/>
+    </row>
+    <row r="362">
+      <c r="A362" s="56"/>
+    </row>
+    <row r="363">
+      <c r="A363" s="56"/>
+    </row>
+    <row r="364">
+      <c r="A364" s="56"/>
+    </row>
+    <row r="365">
+      <c r="A365" s="56"/>
+    </row>
+    <row r="366">
+      <c r="A366" s="56"/>
+    </row>
+    <row r="367">
+      <c r="A367" s="56"/>
+    </row>
+    <row r="368">
+      <c r="A368" s="56"/>
+    </row>
+    <row r="369">
+      <c r="A369" s="56"/>
+    </row>
+    <row r="370">
+      <c r="A370" s="56"/>
+    </row>
+    <row r="371">
+      <c r="A371" s="56"/>
+    </row>
+    <row r="372">
+      <c r="A372" s="56"/>
+    </row>
+    <row r="373">
+      <c r="A373" s="56"/>
+    </row>
+    <row r="374">
+      <c r="A374" s="56"/>
+    </row>
+    <row r="375">
+      <c r="A375" s="56"/>
+    </row>
+    <row r="376">
+      <c r="A376" s="56"/>
+    </row>
+    <row r="377">
+      <c r="A377" s="56"/>
+    </row>
+    <row r="378">
+      <c r="A378" s="56"/>
+    </row>
+    <row r="379">
+      <c r="A379" s="56"/>
+    </row>
+    <row r="380">
+      <c r="A380" s="56"/>
+    </row>
+    <row r="381">
+      <c r="A381" s="56"/>
+    </row>
+    <row r="382">
+      <c r="A382" s="56"/>
+    </row>
+    <row r="383">
+      <c r="A383" s="56"/>
+    </row>
+    <row r="384">
+      <c r="A384" s="56"/>
+    </row>
+    <row r="385">
+      <c r="A385" s="56"/>
+    </row>
+    <row r="386">
+      <c r="A386" s="56"/>
+    </row>
+    <row r="387">
+      <c r="A387" s="56"/>
+    </row>
+    <row r="388">
+      <c r="A388" s="56"/>
+    </row>
+    <row r="389">
+      <c r="A389" s="56"/>
+    </row>
+    <row r="390">
+      <c r="A390" s="56"/>
+    </row>
+    <row r="391">
+      <c r="A391" s="56"/>
+    </row>
+    <row r="392">
+      <c r="A392" s="56"/>
+    </row>
+    <row r="393">
+      <c r="A393" s="56"/>
+    </row>
+    <row r="394">
+      <c r="A394" s="56"/>
+    </row>
+    <row r="395">
+      <c r="A395" s="56"/>
+    </row>
+    <row r="396">
+      <c r="A396" s="56"/>
+    </row>
+    <row r="397">
+      <c r="A397" s="56"/>
+    </row>
+    <row r="398">
+      <c r="A398" s="56"/>
+    </row>
+    <row r="399">
+      <c r="A399" s="56"/>
+    </row>
+    <row r="400">
+      <c r="A400" s="56"/>
+    </row>
+    <row r="401">
+      <c r="A401" s="56"/>
+    </row>
+    <row r="402">
+      <c r="A402" s="56"/>
+    </row>
+    <row r="403">
+      <c r="A403" s="56"/>
+    </row>
+    <row r="404">
+      <c r="A404" s="56"/>
+    </row>
+    <row r="405">
+      <c r="A405" s="56"/>
+    </row>
+    <row r="406">
+      <c r="A406" s="56"/>
+    </row>
+    <row r="407">
+      <c r="A407" s="56"/>
+    </row>
+    <row r="408">
+      <c r="A408" s="56"/>
+    </row>
+    <row r="409">
+      <c r="A409" s="56"/>
+    </row>
+    <row r="410">
+      <c r="A410" s="56"/>
+    </row>
+    <row r="411">
+      <c r="A411" s="56"/>
+    </row>
+    <row r="412">
+      <c r="A412" s="56"/>
+    </row>
+    <row r="413">
+      <c r="A413" s="56"/>
+    </row>
+    <row r="414">
+      <c r="A414" s="56"/>
+    </row>
+    <row r="415">
+      <c r="A415" s="56"/>
+    </row>
+    <row r="416">
+      <c r="A416" s="56"/>
+    </row>
+    <row r="417">
+      <c r="A417" s="56"/>
+    </row>
+    <row r="418">
+      <c r="A418" s="56"/>
+    </row>
+    <row r="419">
+      <c r="A419" s="56"/>
+    </row>
+    <row r="420">
+      <c r="A420" s="56"/>
+    </row>
+    <row r="421">
+      <c r="A421" s="56"/>
+    </row>
+    <row r="422">
+      <c r="A422" s="56"/>
+    </row>
+    <row r="423">
+      <c r="A423" s="56"/>
+    </row>
+    <row r="424">
+      <c r="A424" s="56"/>
+    </row>
+    <row r="425">
+      <c r="A425" s="56"/>
+    </row>
+    <row r="426">
+      <c r="A426" s="56"/>
+    </row>
+    <row r="427">
+      <c r="A427" s="56"/>
+    </row>
+    <row r="428">
+      <c r="A428" s="56"/>
+    </row>
+    <row r="429">
+      <c r="A429" s="56"/>
+    </row>
+    <row r="430">
+      <c r="A430" s="56"/>
+    </row>
+    <row r="431">
+      <c r="A431" s="56"/>
+    </row>
+    <row r="432">
+      <c r="A432" s="56"/>
+    </row>
+    <row r="433">
+      <c r="A433" s="56"/>
+    </row>
+    <row r="434">
+      <c r="A434" s="56"/>
+    </row>
+    <row r="435">
+      <c r="A435" s="56"/>
+    </row>
+    <row r="436">
+      <c r="A436" s="56"/>
+    </row>
+    <row r="437">
+      <c r="A437" s="56"/>
+    </row>
+    <row r="438">
+      <c r="A438" s="56"/>
+    </row>
+    <row r="439">
+      <c r="A439" s="56"/>
+    </row>
+    <row r="440">
+      <c r="A440" s="56"/>
+    </row>
+    <row r="441">
+      <c r="A441" s="56"/>
+    </row>
+    <row r="442">
+      <c r="A442" s="56"/>
+    </row>
+    <row r="443">
+      <c r="A443" s="56"/>
+    </row>
+    <row r="444">
+      <c r="A444" s="56"/>
+    </row>
+    <row r="445">
+      <c r="A445" s="56"/>
+    </row>
+    <row r="446">
+      <c r="A446" s="56"/>
+    </row>
+    <row r="447">
+      <c r="A447" s="56"/>
+    </row>
+    <row r="448">
+      <c r="A448" s="56"/>
+    </row>
+    <row r="449">
+      <c r="A449" s="56"/>
+    </row>
+    <row r="450">
+      <c r="A450" s="56"/>
+    </row>
+    <row r="451">
+      <c r="A451" s="56"/>
+    </row>
+    <row r="452">
+      <c r="A452" s="56"/>
+    </row>
+    <row r="453">
+      <c r="A453" s="56"/>
+    </row>
+    <row r="454">
+      <c r="A454" s="56"/>
+    </row>
+    <row r="455">
+      <c r="A455" s="56"/>
+    </row>
+    <row r="456">
+      <c r="A456" s="56"/>
+    </row>
+    <row r="457">
+      <c r="A457" s="56"/>
+    </row>
+    <row r="458">
+      <c r="A458" s="56"/>
+    </row>
+    <row r="459">
+      <c r="A459" s="56"/>
+    </row>
+    <row r="460">
+      <c r="A460" s="56"/>
+    </row>
+    <row r="461">
+      <c r="A461" s="56"/>
+    </row>
+    <row r="462">
+      <c r="A462" s="56"/>
+    </row>
+    <row r="463">
+      <c r="A463" s="56"/>
+    </row>
+    <row r="464">
+      <c r="A464" s="56"/>
+    </row>
+    <row r="465">
+      <c r="A465" s="56"/>
+    </row>
+    <row r="466">
+      <c r="A466" s="56"/>
+    </row>
+    <row r="467">
+      <c r="A467" s="56"/>
+    </row>
+    <row r="468">
+      <c r="A468" s="56"/>
+    </row>
+    <row r="469">
+      <c r="A469" s="56"/>
+    </row>
+    <row r="470">
+      <c r="A470" s="56"/>
+    </row>
+    <row r="471">
+      <c r="A471" s="56"/>
+    </row>
+    <row r="472">
+      <c r="A472" s="56"/>
+    </row>
+    <row r="473">
+      <c r="A473" s="56"/>
+    </row>
+    <row r="474">
+      <c r="A474" s="56"/>
+    </row>
+    <row r="475">
+      <c r="A475" s="56"/>
+    </row>
+    <row r="476">
+      <c r="A476" s="56"/>
+    </row>
+    <row r="477">
+      <c r="A477" s="56"/>
+    </row>
+    <row r="478">
+      <c r="A478" s="56"/>
+    </row>
+    <row r="479">
+      <c r="A479" s="56"/>
+    </row>
+    <row r="480">
+      <c r="A480" s="56"/>
+    </row>
+    <row r="481">
+      <c r="A481" s="56"/>
+    </row>
+    <row r="482">
+      <c r="A482" s="56"/>
+    </row>
+    <row r="483">
+      <c r="A483" s="56"/>
+    </row>
+    <row r="484">
+      <c r="A484" s="56"/>
+    </row>
+    <row r="485">
+      <c r="A485" s="56"/>
+    </row>
+    <row r="486">
+      <c r="A486" s="56"/>
+    </row>
+    <row r="487">
+      <c r="A487" s="56"/>
+    </row>
+    <row r="488">
+      <c r="A488" s="56"/>
+    </row>
+    <row r="489">
+      <c r="A489" s="56"/>
+    </row>
+    <row r="490">
+      <c r="A490" s="56"/>
+    </row>
+    <row r="491">
+      <c r="A491" s="56"/>
+    </row>
+    <row r="492">
+      <c r="A492" s="56"/>
+    </row>
+    <row r="493">
+      <c r="A493" s="56"/>
+    </row>
+    <row r="494">
+      <c r="A494" s="56"/>
+    </row>
+    <row r="495">
+      <c r="A495" s="56"/>
+    </row>
+    <row r="496">
+      <c r="A496" s="56"/>
+    </row>
+    <row r="497">
+      <c r="A497" s="56"/>
+    </row>
+    <row r="498">
+      <c r="A498" s="56"/>
+    </row>
+    <row r="499">
+      <c r="A499" s="56"/>
+    </row>
+    <row r="500">
+      <c r="A500" s="56"/>
+    </row>
+    <row r="501">
+      <c r="A501" s="56"/>
+    </row>
+    <row r="502">
+      <c r="A502" s="56"/>
+    </row>
+    <row r="503">
+      <c r="A503" s="56"/>
+    </row>
+    <row r="504">
+      <c r="A504" s="56"/>
+    </row>
+    <row r="505">
+      <c r="A505" s="56"/>
+    </row>
+    <row r="506">
+      <c r="A506" s="56"/>
+    </row>
+    <row r="507">
+      <c r="A507" s="56"/>
+    </row>
+    <row r="508">
+      <c r="A508" s="56"/>
+    </row>
+    <row r="509">
+      <c r="A509" s="56"/>
+    </row>
+    <row r="510">
+      <c r="A510" s="56"/>
+    </row>
+    <row r="511">
+      <c r="A511" s="56"/>
+    </row>
+    <row r="512">
+      <c r="A512" s="56"/>
+    </row>
+    <row r="513">
+      <c r="A513" s="56"/>
+    </row>
+    <row r="514">
+      <c r="A514" s="56"/>
+    </row>
+    <row r="515">
+      <c r="A515" s="56"/>
+    </row>
+    <row r="516">
+      <c r="A516" s="56"/>
+    </row>
+    <row r="517">
+      <c r="A517" s="56"/>
+    </row>
+    <row r="518">
+      <c r="A518" s="56"/>
+    </row>
+    <row r="519">
+      <c r="A519" s="56"/>
+    </row>
+    <row r="520">
+      <c r="A520" s="56"/>
+    </row>
+    <row r="521">
+      <c r="A521" s="56"/>
+    </row>
+    <row r="522">
+      <c r="A522" s="56"/>
+    </row>
+    <row r="523">
+      <c r="A523" s="56"/>
+    </row>
+    <row r="524">
+      <c r="A524" s="56"/>
+    </row>
+    <row r="525">
+      <c r="A525" s="56"/>
+    </row>
+    <row r="526">
+      <c r="A526" s="56"/>
+    </row>
+    <row r="527">
+      <c r="A527" s="56"/>
+    </row>
+    <row r="528">
+      <c r="A528" s="56"/>
+    </row>
+    <row r="529">
+      <c r="A529" s="56"/>
+    </row>
+    <row r="530">
+      <c r="A530" s="56"/>
+    </row>
+    <row r="531">
+      <c r="A531" s="56"/>
+    </row>
+    <row r="532">
+      <c r="A532" s="56"/>
+    </row>
+    <row r="533">
+      <c r="A533" s="56"/>
+    </row>
+    <row r="534">
+      <c r="A534" s="56"/>
+    </row>
+    <row r="535">
+      <c r="A535" s="56"/>
+    </row>
+    <row r="536">
+      <c r="A536" s="56"/>
+    </row>
+    <row r="537">
+      <c r="A537" s="56"/>
+    </row>
+    <row r="538">
+      <c r="A538" s="56"/>
+    </row>
+    <row r="539">
+      <c r="A539" s="56"/>
+    </row>
+    <row r="540">
+      <c r="A540" s="56"/>
+    </row>
+    <row r="541">
+      <c r="A541" s="56"/>
+    </row>
+    <row r="542">
+      <c r="A542" s="56"/>
+    </row>
+    <row r="543">
+      <c r="A543" s="56"/>
+    </row>
+    <row r="544">
+      <c r="A544" s="56"/>
+    </row>
+    <row r="545">
+      <c r="A545" s="56"/>
+    </row>
+    <row r="546">
+      <c r="A546" s="56"/>
+    </row>
+    <row r="547">
+      <c r="A547" s="56"/>
+    </row>
+    <row r="548">
+      <c r="A548" s="56"/>
+    </row>
+    <row r="549">
+      <c r="A549" s="56"/>
+    </row>
+    <row r="550">
+      <c r="A550" s="56"/>
+    </row>
+    <row r="551">
+      <c r="A551" s="56"/>
+    </row>
+    <row r="552">
+      <c r="A552" s="56"/>
+    </row>
+    <row r="553">
+      <c r="A553" s="56"/>
+    </row>
+    <row r="554">
+      <c r="A554" s="56"/>
+    </row>
+    <row r="555">
+      <c r="A555" s="56"/>
+    </row>
+    <row r="556">
+      <c r="A556" s="56"/>
+    </row>
+    <row r="557">
+      <c r="A557" s="56"/>
+    </row>
+    <row r="558">
+      <c r="A558" s="56"/>
+    </row>
+    <row r="559">
+      <c r="A559" s="56"/>
+    </row>
+    <row r="560">
+      <c r="A560" s="56"/>
+    </row>
+    <row r="561">
+      <c r="A561" s="56"/>
+    </row>
+    <row r="562">
+      <c r="A562" s="56"/>
+    </row>
+    <row r="563">
+      <c r="A563" s="56"/>
+    </row>
+    <row r="564">
+      <c r="A564" s="56"/>
+    </row>
+    <row r="565">
+      <c r="A565" s="56"/>
+    </row>
+    <row r="566">
+      <c r="A566" s="56"/>
+    </row>
+    <row r="567">
+      <c r="A567" s="56"/>
+    </row>
+    <row r="568">
+      <c r="A568" s="56"/>
+    </row>
+    <row r="569">
+      <c r="A569" s="56"/>
+    </row>
+    <row r="570">
+      <c r="A570" s="56"/>
+    </row>
+    <row r="571">
+      <c r="A571" s="56"/>
+    </row>
+    <row r="572">
+      <c r="A572" s="56"/>
+    </row>
+    <row r="573">
+      <c r="A573" s="56"/>
+    </row>
+    <row r="574">
+      <c r="A574" s="56"/>
+    </row>
+    <row r="575">
+      <c r="A575" s="56"/>
+    </row>
+    <row r="576">
+      <c r="A576" s="56"/>
+    </row>
+    <row r="577">
+      <c r="A577" s="56"/>
+    </row>
+    <row r="578">
+      <c r="A578" s="56"/>
+    </row>
+    <row r="579">
+      <c r="A579" s="56"/>
+    </row>
+    <row r="580">
+      <c r="A580" s="56"/>
+    </row>
+    <row r="581">
+      <c r="A581" s="56"/>
+    </row>
+    <row r="582">
+      <c r="A582" s="56"/>
+    </row>
+    <row r="583">
+      <c r="A583" s="56"/>
+    </row>
+    <row r="584">
+      <c r="A584" s="56"/>
+    </row>
+    <row r="585">
+      <c r="A585" s="56"/>
+    </row>
+    <row r="586">
+      <c r="A586" s="56"/>
+    </row>
+    <row r="587">
+      <c r="A587" s="56"/>
+    </row>
+    <row r="588">
+      <c r="A588" s="56"/>
+    </row>
+    <row r="589">
+      <c r="A589" s="56"/>
+    </row>
+    <row r="590">
+      <c r="A590" s="56"/>
+    </row>
+    <row r="591">
+      <c r="A591" s="56"/>
+    </row>
+    <row r="592">
+      <c r="A592" s="56"/>
+    </row>
+    <row r="593">
+      <c r="A593" s="56"/>
+    </row>
+    <row r="594">
+      <c r="A594" s="56"/>
+    </row>
+    <row r="595">
+      <c r="A595" s="56"/>
+    </row>
+    <row r="596">
+      <c r="A596" s="56"/>
+    </row>
+    <row r="597">
+      <c r="A597" s="56"/>
+    </row>
+    <row r="598">
+      <c r="A598" s="56"/>
+    </row>
+    <row r="599">
+      <c r="A599" s="56"/>
+    </row>
+    <row r="600">
+      <c r="A600" s="56"/>
+    </row>
+    <row r="601">
+      <c r="A601" s="56"/>
+    </row>
+    <row r="602">
+      <c r="A602" s="56"/>
+    </row>
+    <row r="603">
+      <c r="A603" s="56"/>
+    </row>
+    <row r="604">
+      <c r="A604" s="56"/>
+    </row>
+    <row r="605">
+      <c r="A605" s="56"/>
+    </row>
+    <row r="606">
+      <c r="A606" s="56"/>
+    </row>
+    <row r="607">
+      <c r="A607" s="56"/>
+    </row>
+    <row r="608">
+      <c r="A608" s="56"/>
+    </row>
+    <row r="609">
+      <c r="A609" s="56"/>
+    </row>
+    <row r="610">
+      <c r="A610" s="56"/>
+    </row>
+    <row r="611">
+      <c r="A611" s="56"/>
+    </row>
+    <row r="612">
+      <c r="A612" s="56"/>
+    </row>
+    <row r="613">
+      <c r="A613" s="56"/>
+    </row>
+    <row r="614">
+      <c r="A614" s="56"/>
+    </row>
+    <row r="615">
+      <c r="A615" s="56"/>
+    </row>
+    <row r="616">
+      <c r="A616" s="56"/>
+    </row>
+    <row r="617">
+      <c r="A617" s="56"/>
+    </row>
+    <row r="618">
+      <c r="A618" s="56"/>
+    </row>
+    <row r="619">
+      <c r="A619" s="56"/>
+    </row>
+    <row r="620">
+      <c r="A620" s="56"/>
+    </row>
+    <row r="621">
+      <c r="A621" s="56"/>
+    </row>
+    <row r="622">
+      <c r="A622" s="56"/>
+    </row>
+    <row r="623">
+      <c r="A623" s="56"/>
+    </row>
+    <row r="624">
+      <c r="A624" s="56"/>
+    </row>
+    <row r="625">
+      <c r="A625" s="56"/>
+    </row>
+    <row r="626">
+      <c r="A626" s="56"/>
+    </row>
+    <row r="627">
+      <c r="A627" s="56"/>
+    </row>
+    <row r="628">
+      <c r="A628" s="56"/>
+    </row>
+    <row r="629">
+      <c r="A629" s="56"/>
+    </row>
+    <row r="630">
+      <c r="A630" s="56"/>
+    </row>
+    <row r="631">
+      <c r="A631" s="56"/>
+    </row>
+    <row r="632">
+      <c r="A632" s="56"/>
+    </row>
+    <row r="633">
+      <c r="A633" s="56"/>
+    </row>
+    <row r="634">
+      <c r="A634" s="56"/>
+    </row>
+    <row r="635">
+      <c r="A635" s="56"/>
+    </row>
+    <row r="636">
+      <c r="A636" s="56"/>
+    </row>
+    <row r="637">
+      <c r="A637" s="56"/>
+    </row>
+    <row r="638">
+      <c r="A638" s="56"/>
+    </row>
+    <row r="639">
+      <c r="A639" s="56"/>
+    </row>
+    <row r="640">
+      <c r="A640" s="56"/>
+    </row>
+    <row r="641">
+      <c r="A641" s="56"/>
+    </row>
+    <row r="642">
+      <c r="A642" s="56"/>
+    </row>
+    <row r="643">
+      <c r="A643" s="56"/>
+    </row>
+    <row r="644">
+      <c r="A644" s="56"/>
+    </row>
+    <row r="645">
+      <c r="A645" s="56"/>
+    </row>
+    <row r="646">
+      <c r="A646" s="56"/>
+    </row>
+    <row r="647">
+      <c r="A647" s="56"/>
+    </row>
+    <row r="648">
+      <c r="A648" s="56"/>
+    </row>
+    <row r="649">
+      <c r="A649" s="56"/>
+    </row>
+    <row r="650">
+      <c r="A650" s="56"/>
+    </row>
+    <row r="651">
+      <c r="A651" s="56"/>
+    </row>
+    <row r="652">
+      <c r="A652" s="56"/>
+    </row>
+    <row r="653">
+      <c r="A653" s="56"/>
+    </row>
+    <row r="654">
+      <c r="A654" s="56"/>
+    </row>
+    <row r="655">
+      <c r="A655" s="56"/>
+    </row>
+    <row r="656">
+      <c r="A656" s="56"/>
+    </row>
+    <row r="657">
+      <c r="A657" s="56"/>
+    </row>
+    <row r="658">
+      <c r="A658" s="56"/>
+    </row>
+    <row r="659">
+      <c r="A659" s="56"/>
+    </row>
+    <row r="660">
+      <c r="A660" s="56"/>
+    </row>
+    <row r="661">
+      <c r="A661" s="56"/>
+    </row>
+    <row r="662">
+      <c r="A662" s="56"/>
+    </row>
+    <row r="663">
+      <c r="A663" s="56"/>
+    </row>
+    <row r="664">
+      <c r="A664" s="56"/>
+    </row>
+    <row r="665">
+      <c r="A665" s="56"/>
+    </row>
+    <row r="666">
+      <c r="A666" s="56"/>
+    </row>
+    <row r="667">
+      <c r="A667" s="56"/>
+    </row>
+    <row r="668">
+      <c r="A668" s="56"/>
+    </row>
+    <row r="669">
+      <c r="A669" s="56"/>
+    </row>
+    <row r="670">
+      <c r="A670" s="56"/>
+    </row>
+    <row r="671">
+      <c r="A671" s="56"/>
+    </row>
+    <row r="672">
+      <c r="A672" s="56"/>
+    </row>
+    <row r="673">
+      <c r="A673" s="56"/>
+    </row>
+    <row r="674">
+      <c r="A674" s="56"/>
+    </row>
+    <row r="675">
+      <c r="A675" s="56"/>
+    </row>
+    <row r="676">
+      <c r="A676" s="56"/>
+    </row>
+    <row r="677">
+      <c r="A677" s="56"/>
+    </row>
+    <row r="678">
+      <c r="A678" s="56"/>
+    </row>
+    <row r="679">
+      <c r="A679" s="56"/>
+    </row>
+    <row r="680">
+      <c r="A680" s="56"/>
+    </row>
+    <row r="681">
+      <c r="A681" s="56"/>
+    </row>
+    <row r="682">
+      <c r="A682" s="56"/>
+    </row>
+    <row r="683">
+      <c r="A683" s="56"/>
+    </row>
+    <row r="684">
+      <c r="A684" s="56"/>
+    </row>
+    <row r="685">
+      <c r="A685" s="56"/>
+    </row>
+    <row r="686">
+      <c r="A686" s="56"/>
+    </row>
+    <row r="687">
+      <c r="A687" s="56"/>
+    </row>
+    <row r="688">
+      <c r="A688" s="56"/>
+    </row>
+    <row r="689">
+      <c r="A689" s="56"/>
+    </row>
+    <row r="690">
+      <c r="A690" s="56"/>
+    </row>
+    <row r="691">
+      <c r="A691" s="56"/>
+    </row>
+    <row r="692">
+      <c r="A692" s="56"/>
+    </row>
+    <row r="693">
+      <c r="A693" s="56"/>
+    </row>
+    <row r="694">
+      <c r="A694" s="56"/>
+    </row>
+    <row r="695">
+      <c r="A695" s="56"/>
+    </row>
+    <row r="696">
+      <c r="A696" s="56"/>
+    </row>
+    <row r="697">
+      <c r="A697" s="56"/>
+    </row>
+    <row r="698">
+      <c r="A698" s="56"/>
+    </row>
+    <row r="699">
+      <c r="A699" s="56"/>
+    </row>
+    <row r="700">
+      <c r="A700" s="56"/>
+    </row>
+    <row r="701">
+      <c r="A701" s="56"/>
+    </row>
+    <row r="702">
+      <c r="A702" s="56"/>
+    </row>
+    <row r="703">
+      <c r="A703" s="56"/>
+    </row>
+    <row r="704">
+      <c r="A704" s="56"/>
+    </row>
+    <row r="705">
+      <c r="A705" s="56"/>
+    </row>
+    <row r="706">
+      <c r="A706" s="56"/>
+    </row>
+    <row r="707">
+      <c r="A707" s="56"/>
+    </row>
+    <row r="708">
+      <c r="A708" s="56"/>
+    </row>
+    <row r="709">
+      <c r="A709" s="56"/>
+    </row>
+    <row r="710">
+      <c r="A710" s="56"/>
+    </row>
+    <row r="711">
+      <c r="A711" s="56"/>
+    </row>
+    <row r="712">
+      <c r="A712" s="56"/>
+    </row>
+    <row r="713">
+      <c r="A713" s="56"/>
+    </row>
+    <row r="714">
+      <c r="A714" s="56"/>
+    </row>
+    <row r="715">
+      <c r="A715" s="56"/>
+    </row>
+    <row r="716">
+      <c r="A716" s="56"/>
+    </row>
+    <row r="717">
+      <c r="A717" s="56"/>
+    </row>
+    <row r="718">
+      <c r="A718" s="56"/>
+    </row>
+    <row r="719">
+      <c r="A719" s="56"/>
+    </row>
+    <row r="720">
+      <c r="A720" s="56"/>
+    </row>
+    <row r="721">
+      <c r="A721" s="56"/>
+    </row>
+    <row r="722">
+      <c r="A722" s="56"/>
+    </row>
+    <row r="723">
+      <c r="A723" s="56"/>
+    </row>
+    <row r="724">
+      <c r="A724" s="56"/>
+    </row>
+    <row r="725">
+      <c r="A725" s="56"/>
+    </row>
+    <row r="726">
+      <c r="A726" s="56"/>
+    </row>
+    <row r="727">
+      <c r="A727" s="56"/>
+    </row>
+    <row r="728">
+      <c r="A728" s="56"/>
+    </row>
+    <row r="729">
+      <c r="A729" s="56"/>
+    </row>
+    <row r="730">
+      <c r="A730" s="56"/>
+    </row>
+    <row r="731">
+      <c r="A731" s="56"/>
+    </row>
+    <row r="732">
+      <c r="A732" s="56"/>
+    </row>
+    <row r="733">
+      <c r="A733" s="56"/>
+    </row>
+    <row r="734">
+      <c r="A734" s="56"/>
+    </row>
+    <row r="735">
+      <c r="A735" s="56"/>
+    </row>
+    <row r="736">
+      <c r="A736" s="56"/>
+    </row>
+    <row r="737">
+      <c r="A737" s="56"/>
+    </row>
+    <row r="738">
+      <c r="A738" s="56"/>
+    </row>
+    <row r="739">
+      <c r="A739" s="56"/>
+    </row>
+    <row r="740">
+      <c r="A740" s="56"/>
+    </row>
+    <row r="741">
+      <c r="A741" s="56"/>
+    </row>
+    <row r="742">
+      <c r="A742" s="56"/>
+    </row>
+    <row r="743">
+      <c r="A743" s="56"/>
+    </row>
+    <row r="744">
+      <c r="A744" s="56"/>
+    </row>
+    <row r="745">
+      <c r="A745" s="56"/>
+    </row>
+    <row r="746">
+      <c r="A746" s="56"/>
+    </row>
+    <row r="747">
+      <c r="A747" s="56"/>
+    </row>
+    <row r="748">
+      <c r="A748" s="56"/>
+    </row>
+    <row r="749">
+      <c r="A749" s="56"/>
+    </row>
+    <row r="750">
+      <c r="A750" s="56"/>
+    </row>
+    <row r="751">
+      <c r="A751" s="56"/>
+    </row>
+    <row r="752">
+      <c r="A752" s="56"/>
+    </row>
+    <row r="753">
+      <c r="A753" s="56"/>
+    </row>
+    <row r="754">
+      <c r="A754" s="56"/>
+    </row>
+    <row r="755">
+      <c r="A755" s="56"/>
+    </row>
+    <row r="756">
+      <c r="A756" s="56"/>
+    </row>
+    <row r="757">
+      <c r="A757" s="56"/>
+    </row>
+    <row r="758">
+      <c r="A758" s="56"/>
+    </row>
+    <row r="759">
+      <c r="A759" s="56"/>
+    </row>
+    <row r="760">
+      <c r="A760" s="56"/>
+    </row>
+    <row r="761">
+      <c r="A761" s="56"/>
+    </row>
+    <row r="762">
+      <c r="A762" s="56"/>
+    </row>
+    <row r="763">
+      <c r="A763" s="56"/>
+    </row>
+    <row r="764">
+      <c r="A764" s="56"/>
+    </row>
+    <row r="765">
+      <c r="A765" s="56"/>
+    </row>
+    <row r="766">
+      <c r="A766" s="56"/>
+    </row>
+    <row r="767">
+      <c r="A767" s="56"/>
+    </row>
+    <row r="768">
+      <c r="A768" s="56"/>
+    </row>
+    <row r="769">
+      <c r="A769" s="56"/>
+    </row>
+    <row r="770">
+      <c r="A770" s="56"/>
+    </row>
+    <row r="771">
+      <c r="A771" s="56"/>
+    </row>
+    <row r="772">
+      <c r="A772" s="56"/>
+    </row>
+    <row r="773">
+      <c r="A773" s="56"/>
+    </row>
+    <row r="774">
+      <c r="A774" s="56"/>
+    </row>
+    <row r="775">
+      <c r="A775" s="56"/>
+    </row>
+    <row r="776">
+      <c r="A776" s="56"/>
+    </row>
+    <row r="777">
+      <c r="A777" s="56"/>
+    </row>
+    <row r="778">
+      <c r="A778" s="56"/>
+    </row>
+    <row r="779">
+      <c r="A779" s="56"/>
+    </row>
+    <row r="780">
+      <c r="A780" s="56"/>
+    </row>
+    <row r="781">
+      <c r="A781" s="56"/>
+    </row>
+    <row r="782">
+      <c r="A782" s="56"/>
+    </row>
+    <row r="783">
+      <c r="A783" s="56"/>
+    </row>
+    <row r="784">
+      <c r="A784" s="56"/>
+    </row>
+    <row r="785">
+      <c r="A785" s="56"/>
+    </row>
+    <row r="786">
+      <c r="A786" s="56"/>
+    </row>
+    <row r="787">
+      <c r="A787" s="56"/>
+    </row>
+    <row r="788">
+      <c r="A788" s="56"/>
+    </row>
+    <row r="789">
+      <c r="A789" s="56"/>
+    </row>
+    <row r="790">
+      <c r="A790" s="56"/>
+    </row>
+    <row r="791">
+      <c r="A791" s="56"/>
+    </row>
+    <row r="792">
+      <c r="A792" s="56"/>
+    </row>
+    <row r="793">
+      <c r="A793" s="56"/>
+    </row>
+    <row r="794">
+      <c r="A794" s="56"/>
+    </row>
+    <row r="795">
+      <c r="A795" s="56"/>
+    </row>
+    <row r="796">
+      <c r="A796" s="56"/>
+    </row>
+    <row r="797">
+      <c r="A797" s="56"/>
+    </row>
+    <row r="798">
+      <c r="A798" s="56"/>
+    </row>
+    <row r="799">
+      <c r="A799" s="56"/>
+    </row>
+    <row r="800">
+      <c r="A800" s="56"/>
+    </row>
+    <row r="801">
+      <c r="A801" s="56"/>
+    </row>
+    <row r="802">
+      <c r="A802" s="56"/>
+    </row>
+    <row r="803">
+      <c r="A803" s="56"/>
+    </row>
+    <row r="804">
+      <c r="A804" s="56"/>
+    </row>
+    <row r="805">
+      <c r="A805" s="56"/>
+    </row>
+    <row r="806">
+      <c r="A806" s="56"/>
+    </row>
+    <row r="807">
+      <c r="A807" s="56"/>
+    </row>
+    <row r="808">
+      <c r="A808" s="56"/>
+    </row>
+    <row r="809">
+      <c r="A809" s="56"/>
+    </row>
+    <row r="810">
+      <c r="A810" s="56"/>
+    </row>
+    <row r="811">
+      <c r="A811" s="56"/>
+    </row>
+    <row r="812">
+      <c r="A812" s="56"/>
+    </row>
+    <row r="813">
+      <c r="A813" s="56"/>
+    </row>
+    <row r="814">
+      <c r="A814" s="56"/>
+    </row>
+    <row r="815">
+      <c r="A815" s="56"/>
+    </row>
+    <row r="816">
+      <c r="A816" s="56"/>
+    </row>
+    <row r="817">
+      <c r="A817" s="56"/>
+    </row>
+    <row r="818">
+      <c r="A818" s="56"/>
+    </row>
+    <row r="819">
+      <c r="A819" s="56"/>
+    </row>
+    <row r="820">
+      <c r="A820" s="56"/>
+    </row>
+    <row r="821">
+      <c r="A821" s="56"/>
+    </row>
+    <row r="822">
+      <c r="A822" s="56"/>
+    </row>
+    <row r="823">
+      <c r="A823" s="56"/>
+    </row>
+    <row r="824">
+      <c r="A824" s="56"/>
+    </row>
+    <row r="825">
+      <c r="A825" s="56"/>
+    </row>
+    <row r="826">
+      <c r="A826" s="56"/>
+    </row>
+    <row r="827">
+      <c r="A827" s="56"/>
+    </row>
+    <row r="828">
+      <c r="A828" s="56"/>
+    </row>
+    <row r="829">
+      <c r="A829" s="56"/>
+    </row>
+    <row r="830">
+      <c r="A830" s="56"/>
+    </row>
+    <row r="831">
+      <c r="A831" s="56"/>
+    </row>
+    <row r="832">
+      <c r="A832" s="56"/>
+    </row>
+    <row r="833">
+      <c r="A833" s="56"/>
+    </row>
+    <row r="834">
+      <c r="A834" s="56"/>
+    </row>
+    <row r="835">
+      <c r="A835" s="56"/>
+    </row>
+    <row r="836">
+      <c r="A836" s="56"/>
+    </row>
+    <row r="837">
+      <c r="A837" s="56"/>
+    </row>
+    <row r="838">
+      <c r="A838" s="56"/>
+    </row>
+    <row r="839">
+      <c r="A839" s="56"/>
+    </row>
+    <row r="840">
+      <c r="A840" s="56"/>
+    </row>
+    <row r="841">
+      <c r="A841" s="56"/>
+    </row>
+    <row r="842">
+      <c r="A842" s="56"/>
+    </row>
+    <row r="843">
+      <c r="A843" s="56"/>
+    </row>
+    <row r="844">
+      <c r="A844" s="56"/>
+    </row>
+    <row r="845">
+      <c r="A845" s="56"/>
+    </row>
+    <row r="846">
+      <c r="A846" s="56"/>
+    </row>
+    <row r="847">
+      <c r="A847" s="56"/>
+    </row>
+    <row r="848">
+      <c r="A848" s="56"/>
+    </row>
+    <row r="849">
+      <c r="A849" s="56"/>
+    </row>
+    <row r="850">
+      <c r="A850" s="56"/>
+    </row>
+    <row r="851">
+      <c r="A851" s="56"/>
+    </row>
+    <row r="852">
+      <c r="A852" s="56"/>
+    </row>
+    <row r="853">
+      <c r="A853" s="56"/>
+    </row>
+    <row r="854">
+      <c r="A854" s="56"/>
+    </row>
+    <row r="855">
+      <c r="A855" s="56"/>
+    </row>
+    <row r="856">
+      <c r="A856" s="56"/>
+    </row>
+    <row r="857">
+      <c r="A857" s="56"/>
+    </row>
+    <row r="858">
+      <c r="A858" s="56"/>
+    </row>
+    <row r="859">
+      <c r="A859" s="56"/>
+    </row>
+    <row r="860">
+      <c r="A860" s="56"/>
+    </row>
+    <row r="861">
+      <c r="A861" s="56"/>
+    </row>
+    <row r="862">
+      <c r="A862" s="56"/>
+    </row>
+    <row r="863">
+      <c r="A863" s="56"/>
+    </row>
+    <row r="864">
+      <c r="A864" s="56"/>
+    </row>
+    <row r="865">
+      <c r="A865" s="56"/>
+    </row>
+    <row r="866">
+      <c r="A866" s="56"/>
+    </row>
+    <row r="867">
+      <c r="A867" s="56"/>
+    </row>
+    <row r="868">
+      <c r="A868" s="56"/>
+    </row>
+    <row r="869">
+      <c r="A869" s="56"/>
+    </row>
+    <row r="870">
+      <c r="A870" s="56"/>
+    </row>
+    <row r="871">
+      <c r="A871" s="56"/>
+    </row>
+    <row r="872">
+      <c r="A872" s="56"/>
+    </row>
+    <row r="873">
+      <c r="A873" s="56"/>
+    </row>
+    <row r="874">
+      <c r="A874" s="56"/>
+    </row>
+    <row r="875">
+      <c r="A875" s="56"/>
+    </row>
+    <row r="876">
+      <c r="A876" s="56"/>
+    </row>
+    <row r="877">
+      <c r="A877" s="56"/>
+    </row>
+    <row r="878">
+      <c r="A878" s="56"/>
+    </row>
+    <row r="879">
+      <c r="A879" s="56"/>
+    </row>
+    <row r="880">
+      <c r="A880" s="56"/>
+    </row>
+    <row r="881">
+      <c r="A881" s="56"/>
+    </row>
+    <row r="882">
+      <c r="A882" s="56"/>
+    </row>
+    <row r="883">
+      <c r="A883" s="56"/>
+    </row>
+    <row r="884">
+      <c r="A884" s="56"/>
+    </row>
+    <row r="885">
+      <c r="A885" s="56"/>
+    </row>
+    <row r="886">
+      <c r="A886" s="56"/>
+    </row>
+    <row r="887">
+      <c r="A887" s="56"/>
+    </row>
+    <row r="888">
+      <c r="A888" s="56"/>
+    </row>
+    <row r="889">
+      <c r="A889" s="56"/>
+    </row>
+    <row r="890">
+      <c r="A890" s="56"/>
+    </row>
+    <row r="891">
+      <c r="A891" s="56"/>
+    </row>
+    <row r="892">
+      <c r="A892" s="56"/>
+    </row>
+    <row r="893">
+      <c r="A893" s="56"/>
+    </row>
+    <row r="894">
+      <c r="A894" s="56"/>
+    </row>
+    <row r="895">
+      <c r="A895" s="56"/>
+    </row>
+    <row r="896">
+      <c r="A896" s="56"/>
+    </row>
+    <row r="897">
+      <c r="A897" s="56"/>
+    </row>
+    <row r="898">
+      <c r="A898" s="56"/>
+    </row>
+    <row r="899">
+      <c r="A899" s="56"/>
+    </row>
+    <row r="900">
+      <c r="A900" s="56"/>
+    </row>
+    <row r="901">
+      <c r="A901" s="56"/>
+    </row>
+    <row r="902">
+      <c r="A902" s="56"/>
+    </row>
+    <row r="903">
+      <c r="A903" s="56"/>
+    </row>
+    <row r="904">
+      <c r="A904" s="56"/>
+    </row>
+    <row r="905">
+      <c r="A905" s="56"/>
+    </row>
+    <row r="906">
+      <c r="A906" s="56"/>
+    </row>
+    <row r="907">
+      <c r="A907" s="56"/>
+    </row>
+    <row r="908">
+      <c r="A908" s="56"/>
+    </row>
+    <row r="909">
+      <c r="A909" s="56"/>
+    </row>
+    <row r="910">
+      <c r="A910" s="56"/>
+    </row>
+    <row r="911">
+      <c r="A911" s="56"/>
+    </row>
+    <row r="912">
+      <c r="A912" s="56"/>
+    </row>
+    <row r="913">
+      <c r="A913" s="56"/>
+    </row>
+    <row r="914">
+      <c r="A914" s="56"/>
+    </row>
+    <row r="915">
+      <c r="A915" s="56"/>
+    </row>
+    <row r="916">
+      <c r="A916" s="56"/>
+    </row>
+    <row r="917">
+      <c r="A917" s="56"/>
+    </row>
+    <row r="918">
+      <c r="A918" s="56"/>
+    </row>
+    <row r="919">
+      <c r="A919" s="56"/>
+    </row>
+    <row r="920">
+      <c r="A920" s="56"/>
+    </row>
+    <row r="921">
+      <c r="A921" s="56"/>
+    </row>
+    <row r="922">
+      <c r="A922" s="56"/>
+    </row>
+    <row r="923">
+      <c r="A923" s="56"/>
+    </row>
+    <row r="924">
+      <c r="A924" s="56"/>
+    </row>
+    <row r="925">
+      <c r="A925" s="56"/>
+    </row>
+    <row r="926">
+      <c r="A926" s="56"/>
+    </row>
+    <row r="927">
+      <c r="A927" s="56"/>
+    </row>
+    <row r="928">
+      <c r="A928" s="56"/>
+    </row>
+    <row r="929">
+      <c r="A929" s="56"/>
+    </row>
+    <row r="930">
+      <c r="A930" s="56"/>
+    </row>
+    <row r="931">
+      <c r="A931" s="56"/>
+    </row>
+    <row r="932">
+      <c r="A932" s="56"/>
+    </row>
+    <row r="933">
+      <c r="A933" s="56"/>
+    </row>
+    <row r="934">
+      <c r="A934" s="56"/>
+    </row>
+    <row r="935">
+      <c r="A935" s="56"/>
+    </row>
+    <row r="936">
+      <c r="A936" s="56"/>
+    </row>
+    <row r="937">
+      <c r="A937" s="56"/>
+    </row>
+    <row r="938">
+      <c r="A938" s="56"/>
+    </row>
+    <row r="939">
+      <c r="A939" s="56"/>
+    </row>
+    <row r="940">
+      <c r="A940" s="56"/>
+    </row>
+    <row r="941">
+      <c r="A941" s="56"/>
+    </row>
+    <row r="942">
+      <c r="A942" s="56"/>
+    </row>
+    <row r="943">
+      <c r="A943" s="56"/>
+    </row>
+    <row r="944">
+      <c r="A944" s="56"/>
+    </row>
+    <row r="945">
+      <c r="A945" s="56"/>
+    </row>
+    <row r="946">
+      <c r="A946" s="56"/>
+    </row>
+    <row r="947">
+      <c r="A947" s="56"/>
+    </row>
+    <row r="948">
+      <c r="A948" s="56"/>
+    </row>
+    <row r="949">
+      <c r="A949" s="56"/>
+    </row>
+    <row r="950">
+      <c r="A950" s="56"/>
+    </row>
+    <row r="951">
+      <c r="A951" s="56"/>
+    </row>
+    <row r="952">
+      <c r="A952" s="56"/>
+    </row>
+    <row r="953">
+      <c r="A953" s="56"/>
+    </row>
+    <row r="954">
+      <c r="A954" s="56"/>
+    </row>
+    <row r="955">
+      <c r="A955" s="56"/>
+    </row>
+    <row r="956">
+      <c r="A956" s="56"/>
+    </row>
+    <row r="957">
+      <c r="A957" s="56"/>
+    </row>
+    <row r="958">
+      <c r="A958" s="56"/>
+    </row>
+    <row r="959">
+      <c r="A959" s="56"/>
+    </row>
+    <row r="960">
+      <c r="A960" s="56"/>
+    </row>
+    <row r="961">
+      <c r="A961" s="56"/>
+    </row>
+    <row r="962">
+      <c r="A962" s="56"/>
+    </row>
+    <row r="963">
+      <c r="A963" s="56"/>
+    </row>
+    <row r="964">
+      <c r="A964" s="56"/>
+    </row>
+    <row r="965">
+      <c r="A965" s="56"/>
+    </row>
+    <row r="966">
+      <c r="A966" s="56"/>
+    </row>
+    <row r="967">
+      <c r="A967" s="56"/>
+    </row>
+    <row r="968">
+      <c r="A968" s="56"/>
+    </row>
+    <row r="969">
+      <c r="A969" s="56"/>
+    </row>
+    <row r="970">
+      <c r="A970" s="56"/>
+    </row>
+    <row r="971">
+      <c r="A971" s="56"/>
+    </row>
+    <row r="972">
+      <c r="A972" s="56"/>
+    </row>
+    <row r="973">
+      <c r="A973" s="56"/>
+    </row>
+    <row r="974">
+      <c r="A974" s="56"/>
+    </row>
+    <row r="975">
+      <c r="A975" s="56"/>
+    </row>
+    <row r="976">
+      <c r="A976" s="56"/>
+    </row>
+    <row r="977">
+      <c r="A977" s="56"/>
+    </row>
+    <row r="978">
+      <c r="A978" s="56"/>
+    </row>
+    <row r="979">
+      <c r="A979" s="56"/>
+    </row>
+    <row r="980">
+      <c r="A980" s="56"/>
+    </row>
+    <row r="981">
+      <c r="A981" s="56"/>
+    </row>
+    <row r="982">
+      <c r="A982" s="56"/>
+    </row>
+    <row r="983">
+      <c r="A983" s="56"/>
+    </row>
+    <row r="984">
+      <c r="A984" s="56"/>
+    </row>
+    <row r="985">
+      <c r="A985" s="56"/>
+    </row>
+    <row r="986">
+      <c r="A986" s="56"/>
+    </row>
+    <row r="987">
+      <c r="A987" s="56"/>
+    </row>
+    <row r="988">
+      <c r="A988" s="56"/>
+    </row>
+    <row r="989">
+      <c r="A989" s="56"/>
+    </row>
+    <row r="990">
+      <c r="A990" s="56"/>
+    </row>
+    <row r="991">
+      <c r="A991" s="56"/>
+    </row>
+    <row r="992">
+      <c r="A992" s="56"/>
+    </row>
+    <row r="993">
+      <c r="A993" s="56"/>
+    </row>
+    <row r="994">
+      <c r="A994" s="56"/>
+    </row>
+    <row r="995">
+      <c r="A995" s="56"/>
+    </row>
+    <row r="996">
+      <c r="A996" s="56"/>
+    </row>
+    <row r="997">
+      <c r="A997" s="56"/>
+    </row>
+    <row r="998">
+      <c r="A998" s="56"/>
+    </row>
+    <row r="999">
+      <c r="A999" s="56"/>
+    </row>
+    <row r="1000">
+      <c r="A1000" s="56"/>
+    </row>
+    <row r="1001">
+      <c r="A1001" s="56"/>
+    </row>
+    <row r="1002">
+      <c r="A1002" s="56"/>
+    </row>
+    <row r="1003">
+      <c r="A1003" s="56"/>
+    </row>
+    <row r="1004">
+      <c r="A1004" s="56"/>
+    </row>
+    <row r="1005">
+      <c r="A1005" s="56"/>
+    </row>
+    <row r="1006">
+      <c r="A1006" s="56"/>
+    </row>
+    <row r="1007">
+      <c r="A1007" s="56"/>
+    </row>
+    <row r="1008">
+      <c r="A1008" s="56"/>
+    </row>
+    <row r="1009">
+      <c r="A1009" s="56"/>
+    </row>
+    <row r="1010">
+      <c r="A1010" s="56"/>
+    </row>
+    <row r="1011">
+      <c r="A1011" s="56"/>
+    </row>
+    <row r="1012">
+      <c r="A1012" s="56"/>
+    </row>
+    <row r="1013">
+      <c r="A1013" s="56"/>
+    </row>
+    <row r="1014">
+      <c r="A1014" s="56"/>
+    </row>
+    <row r="1015">
+      <c r="A1015" s="56"/>
+    </row>
+    <row r="1016">
+      <c r="A1016" s="56"/>
+    </row>
+    <row r="1017">
+      <c r="A1017" s="56"/>
+    </row>
+    <row r="1018">
+      <c r="A1018" s="56"/>
+    </row>
+    <row r="1019">
+      <c r="A1019" s="56"/>
+    </row>
+    <row r="1020">
+      <c r="A1020" s="56"/>
+    </row>
+    <row r="1021">
+      <c r="A1021" s="56"/>
+    </row>
+    <row r="1022">
+      <c r="A1022" s="56"/>
+    </row>
+    <row r="1023">
+      <c r="A1023" s="56"/>
+    </row>
+    <row r="1024">
+      <c r="A1024" s="56"/>
+    </row>
+    <row r="1025">
+      <c r="A1025" s="56"/>
+    </row>
+    <row r="1026">
+      <c r="A1026" s="56"/>
+    </row>
+    <row r="1027">
+      <c r="A1027" s="56"/>
+    </row>
+    <row r="1028">
+      <c r="A1028" s="56"/>
+    </row>
+    <row r="1029">
+      <c r="A1029" s="56"/>
+    </row>
+    <row r="1030">
+      <c r="A1030" s="56"/>
+    </row>
+    <row r="1031">
+      <c r="A1031" s="56"/>
+    </row>
+    <row r="1032">
+      <c r="A1032" s="56"/>
+    </row>
+    <row r="1033">
+      <c r="A1033" s="56"/>
+    </row>
+    <row r="1034">
+      <c r="A1034" s="56"/>
+    </row>
+    <row r="1035">
+      <c r="A1035" s="56"/>
+    </row>
+    <row r="1036">
+      <c r="A1036" s="56"/>
+    </row>
+    <row r="1037">
+      <c r="A1037" s="56"/>
+    </row>
+    <row r="1038">
+      <c r="A1038" s="56"/>
+    </row>
+    <row r="1039">
+      <c r="A1039" s="56"/>
+    </row>
+    <row r="1040">
+      <c r="A1040" s="56"/>
+    </row>
+    <row r="1041">
+      <c r="A1041" s="56"/>
+    </row>
+    <row r="1042">
+      <c r="A1042" s="56"/>
+    </row>
+    <row r="1043">
+      <c r="A1043" s="56"/>
+    </row>
+    <row r="1044">
+      <c r="A1044" s="56"/>
+    </row>
+    <row r="1045">
+      <c r="A1045" s="56"/>
+    </row>
+    <row r="1046">
+      <c r="A1046" s="56"/>
+    </row>
+    <row r="1047">
+      <c r="A1047" s="56"/>
+    </row>
+    <row r="1048">
+      <c r="A1048" s="56"/>
+    </row>
+    <row r="1049">
+      <c r="A1049" s="56"/>
+    </row>
+    <row r="1050">
+      <c r="A1050" s="56"/>
+    </row>
+    <row r="1051">
+      <c r="A1051" s="56"/>
+    </row>
+    <row r="1052">
+      <c r="A1052" s="56"/>
+    </row>
+    <row r="1053">
+      <c r="A1053" s="56"/>
+    </row>
+    <row r="1054">
+      <c r="A1054" s="56"/>
+    </row>
+    <row r="1055">
+      <c r="A1055" s="56"/>
+    </row>
+    <row r="1056">
+      <c r="A1056" s="56"/>
+    </row>
+    <row r="1057">
+      <c r="A1057" s="56"/>
+    </row>
+    <row r="1058">
+      <c r="A1058" s="56"/>
+    </row>
+    <row r="1059">
+      <c r="A1059" s="56"/>
+    </row>
+    <row r="1060">
+      <c r="A1060" s="56"/>
+    </row>
+    <row r="1061">
+      <c r="A1061" s="56"/>
+    </row>
+    <row r="1062">
+      <c r="A1062" s="56"/>
+    </row>
+  </sheetData>
+  <mergeCells count="64">
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="A91:A94"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="A79:A90"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="K1:Q1"/>
+    <mergeCell ref="R1:X1"/>
+    <mergeCell ref="Y1:AE1"/>
+    <mergeCell ref="AF1:AL1"/>
+    <mergeCell ref="AM1:AR1"/>
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A15:A22"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A31:A42"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="A47:A50"/>
+    <mergeCell ref="A51:A62"/>
+    <mergeCell ref="A63:A78"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B49:B50"/>
+  </mergeCells>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>